--- a/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004692606455643</v>
+        <v>1.008837955282042</v>
       </c>
       <c r="D2">
-        <v>1.021997303954283</v>
+        <v>1.028789355355334</v>
       </c>
       <c r="E2">
-        <v>1.011938138897808</v>
+        <v>1.013736910924098</v>
       </c>
       <c r="F2">
-        <v>1.02124470061862</v>
+        <v>1.032907794310012</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047958247355383</v>
+        <v>1.047199861639463</v>
       </c>
       <c r="J2">
-        <v>1.0267338626757</v>
+        <v>1.030757500107994</v>
       </c>
       <c r="K2">
-        <v>1.033158457067195</v>
+        <v>1.039861665794295</v>
       </c>
       <c r="L2">
-        <v>1.023233624653177</v>
+        <v>1.025008129396779</v>
       </c>
       <c r="M2">
-        <v>1.032415789292759</v>
+        <v>1.043926945534041</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011942800542212</v>
+        <v>1.014985319566221</v>
       </c>
       <c r="D3">
-        <v>1.027485919440337</v>
+        <v>1.033549059435891</v>
       </c>
       <c r="E3">
-        <v>1.018063512740062</v>
+        <v>1.018797042309909</v>
       </c>
       <c r="F3">
-        <v>1.027903875979137</v>
+        <v>1.038199724047569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050632349543535</v>
+        <v>1.049052172098605</v>
       </c>
       <c r="J3">
-        <v>1.03211310407973</v>
+        <v>1.035075641600079</v>
       </c>
       <c r="K3">
-        <v>1.037778788630912</v>
+        <v>1.043769941247212</v>
       </c>
       <c r="L3">
-        <v>1.028470368965152</v>
+        <v>1.029194930625994</v>
       </c>
       <c r="M3">
-        <v>1.038191748997326</v>
+        <v>1.048366093537669</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016495854220018</v>
+        <v>1.0188636534274</v>
       </c>
       <c r="D4">
-        <v>1.030934797484014</v>
+        <v>1.036554624503116</v>
       </c>
       <c r="E4">
-        <v>1.021915469867343</v>
+        <v>1.021995400530602</v>
       </c>
       <c r="F4">
-        <v>1.032092424830104</v>
+        <v>1.041543630880839</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052297826263224</v>
+        <v>1.050210121959056</v>
       </c>
       <c r="J4">
-        <v>1.035486804156345</v>
+        <v>1.037796831339468</v>
       </c>
       <c r="K4">
-        <v>1.040673669911282</v>
+        <v>1.046231011281352</v>
       </c>
       <c r="L4">
-        <v>1.031756398435159</v>
+        <v>1.031835414900256</v>
       </c>
       <c r="M4">
-        <v>1.041818357367115</v>
+        <v>1.051165239722719</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018378652445285</v>
+        <v>1.020471407102741</v>
       </c>
       <c r="D5">
-        <v>1.032361385384026</v>
+        <v>1.037801137976004</v>
       </c>
       <c r="E5">
-        <v>1.023509526319539</v>
+        <v>1.023322630859041</v>
       </c>
       <c r="F5">
-        <v>1.033826000942285</v>
+        <v>1.042931020454325</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052983158352269</v>
+        <v>1.050687536642391</v>
       </c>
       <c r="J5">
-        <v>1.036880787651231</v>
+        <v>1.03892409618998</v>
       </c>
       <c r="K5">
-        <v>1.041869102365058</v>
+        <v>1.047250062893369</v>
       </c>
       <c r="L5">
-        <v>1.033114555465937</v>
+        <v>1.032929736944894</v>
       </c>
       <c r="M5">
-        <v>1.043317813913732</v>
+        <v>1.052325190083031</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018692996540409</v>
+        <v>1.020740055732319</v>
       </c>
       <c r="D6">
-        <v>1.03259958268755</v>
+        <v>1.038009455760824</v>
       </c>
       <c r="E6">
-        <v>1.023775730172765</v>
+        <v>1.02354448321404</v>
       </c>
       <c r="F6">
-        <v>1.034115517934685</v>
+        <v>1.043162914389006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053097377765313</v>
+        <v>1.050767155565329</v>
       </c>
       <c r="J6">
-        <v>1.037113453414146</v>
+        <v>1.039112408808794</v>
       </c>
       <c r="K6">
-        <v>1.042068586300302</v>
+        <v>1.047420270785958</v>
       </c>
       <c r="L6">
-        <v>1.033341264705529</v>
+        <v>1.033112575046153</v>
       </c>
       <c r="M6">
-        <v>1.043568140882968</v>
+        <v>1.052518985480128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016521132993363</v>
+        <v>1.018885224091842</v>
       </c>
       <c r="D7">
-        <v>1.030953949677862</v>
+        <v>1.036571346411996</v>
       </c>
       <c r="E7">
-        <v>1.021936867390835</v>
+        <v>1.022013202227887</v>
       </c>
       <c r="F7">
-        <v>1.032115694256293</v>
+        <v>1.041562240430564</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052307041121173</v>
+        <v>1.050216537653957</v>
       </c>
       <c r="J7">
-        <v>1.035505524547596</v>
+        <v>1.037811958678019</v>
       </c>
       <c r="K7">
-        <v>1.040689726706678</v>
+        <v>1.04624468828443</v>
       </c>
       <c r="L7">
-        <v>1.031774636132725</v>
+        <v>1.031850098231532</v>
       </c>
       <c r="M7">
-        <v>1.04183849035787</v>
+        <v>1.051180804156301</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007172616031997</v>
+        <v>1.010936760463513</v>
       </c>
       <c r="D8">
-        <v>1.023874239807434</v>
+        <v>1.03041377193365</v>
       </c>
       <c r="E8">
-        <v>1.014032220543936</v>
+        <v>1.015463221800807</v>
       </c>
       <c r="F8">
-        <v>1.023521087394173</v>
+        <v>1.03471338284864</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04887583314984</v>
+        <v>1.047834479036235</v>
       </c>
       <c r="J8">
-        <v>1.028574782292652</v>
+        <v>1.032232398254982</v>
       </c>
       <c r="K8">
-        <v>1.034740245885916</v>
+        <v>1.04119694514065</v>
       </c>
       <c r="L8">
-        <v>1.025025412886045</v>
+        <v>1.02643772981036</v>
       </c>
       <c r="M8">
-        <v>1.03439160431032</v>
+        <v>1.045442805926514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9895502817542112</v>
+        <v>0.9961153215679395</v>
       </c>
       <c r="D9">
-        <v>1.010551036085398</v>
+        <v>1.018957657844848</v>
       </c>
       <c r="E9">
-        <v>0.9991791081922706</v>
+        <v>1.00330089797298</v>
       </c>
       <c r="F9">
-        <v>1.007378391663084</v>
+        <v>1.021988769731193</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042298705337132</v>
+        <v>1.043309513546523</v>
       </c>
       <c r="J9">
-        <v>1.015477520786183</v>
+        <v>1.021806007583734</v>
       </c>
       <c r="K9">
-        <v>1.023475218472702</v>
+        <v>1.031750469836531</v>
       </c>
       <c r="L9">
-        <v>1.012285517848358</v>
+        <v>1.016340646469831</v>
       </c>
       <c r="M9">
-        <v>1.020352883222702</v>
+        <v>1.034734890985128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9768882304308518</v>
+        <v>0.9856038101824586</v>
       </c>
       <c r="D10">
-        <v>1.001001838841384</v>
+        <v>1.010856860589169</v>
       </c>
       <c r="E10">
-        <v>0.9885465050862308</v>
+        <v>0.9947156060841758</v>
       </c>
       <c r="F10">
-        <v>0.9958265813939811</v>
+        <v>1.01300221237725</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037503242237654</v>
+        <v>1.040047639863336</v>
       </c>
       <c r="J10">
-        <v>1.006049805847292</v>
+        <v>1.01440048089329</v>
       </c>
       <c r="K10">
-        <v>1.015353028307592</v>
+        <v>1.025032819392494</v>
       </c>
       <c r="L10">
-        <v>1.003125681712826</v>
+        <v>1.009180931913269</v>
       </c>
       <c r="M10">
-        <v>1.010271599275318</v>
+        <v>1.027140610244893</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9711516423406947</v>
+        <v>0.9808818287998003</v>
       </c>
       <c r="D11">
-        <v>0.9966834059641019</v>
+        <v>1.007225103193619</v>
       </c>
       <c r="E11">
-        <v>0.9837406939600297</v>
+        <v>0.9908698531054537</v>
       </c>
       <c r="F11">
-        <v>0.9906060501108439</v>
+        <v>1.008975837249082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035315298963936</v>
+        <v>1.038570741810956</v>
       </c>
       <c r="J11">
-        <v>1.001775819063087</v>
+        <v>1.011072156322275</v>
       </c>
       <c r="K11">
-        <v>1.011668140603049</v>
+        <v>1.022012038908567</v>
       </c>
       <c r="L11">
-        <v>0.9989758919994376</v>
+        <v>1.005966029352468</v>
       </c>
       <c r="M11">
-        <v>1.005707323921478</v>
+        <v>1.023730444600102</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689790267703916</v>
+        <v>0.9791002813863006</v>
       </c>
       <c r="D12">
-        <v>0.9950492811803839</v>
+        <v>1.00585612638684</v>
       </c>
       <c r="E12">
-        <v>0.9819224764305726</v>
+        <v>0.9894206651480354</v>
       </c>
       <c r="F12">
-        <v>0.9886310237872358</v>
+        <v>1.007458468883264</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034484470351813</v>
+        <v>1.038011867746934</v>
       </c>
       <c r="J12">
-        <v>1.000156851513164</v>
+        <v>1.009816270085083</v>
       </c>
       <c r="K12">
-        <v>1.010271947776687</v>
+        <v>1.020871985731837</v>
       </c>
       <c r="L12">
-        <v>0.9974044063987481</v>
+        <v>1.004753394504925</v>
       </c>
       <c r="M12">
-        <v>1.003979325568854</v>
+        <v>1.02244415795405</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9694470153405996</v>
+        <v>0.9794837121811778</v>
       </c>
       <c r="D13">
-        <v>0.9954012105285049</v>
+        <v>1.006150703721405</v>
       </c>
       <c r="E13">
-        <v>0.9823140382499086</v>
+        <v>0.9897324823742649</v>
       </c>
       <c r="F13">
-        <v>0.9890563511242786</v>
+        <v>1.007784961300097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034663530421228</v>
+        <v>1.038132223993772</v>
       </c>
       <c r="J13">
-        <v>1.000505593017404</v>
+        <v>1.010086571407661</v>
       </c>
       <c r="K13">
-        <v>1.010572717588869</v>
+        <v>1.021117365737232</v>
       </c>
       <c r="L13">
-        <v>0.9977428997281592</v>
+        <v>1.005014366267154</v>
       </c>
       <c r="M13">
-        <v>1.004351510962296</v>
+        <v>1.022720980032644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9709729286563343</v>
+        <v>0.9807351406548709</v>
       </c>
       <c r="D14">
-        <v>0.9965489575760168</v>
+        <v>1.00711235897018</v>
       </c>
       <c r="E14">
-        <v>0.9835910927838167</v>
+        <v>0.9907504939310486</v>
       </c>
       <c r="F14">
-        <v>0.9904435450322931</v>
+        <v>1.008850864828959</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035247000861561</v>
+        <v>1.038524758668833</v>
       </c>
       <c r="J14">
-        <v>1.001642651961178</v>
+        <v>1.010968752258546</v>
       </c>
       <c r="K14">
-        <v>1.011553305015809</v>
+        <v>1.021918176179675</v>
       </c>
       <c r="L14">
-        <v>0.9988466215019642</v>
+        <v>1.005866177140663</v>
       </c>
       <c r="M14">
-        <v>1.005565169553123</v>
+        <v>1.023624527549613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9719074388936302</v>
+        <v>0.9815024677170673</v>
       </c>
       <c r="D15">
-        <v>0.9972520584558737</v>
+        <v>1.007702176516787</v>
       </c>
       <c r="E15">
-        <v>0.9843734487899171</v>
+        <v>0.9913749356568574</v>
       </c>
       <c r="F15">
-        <v>0.9912933871983001</v>
+        <v>1.00950466825005</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035604049641949</v>
+        <v>1.038765229964189</v>
       </c>
       <c r="J15">
-        <v>1.002338984264455</v>
+        <v>1.011509654399372</v>
       </c>
       <c r="K15">
-        <v>1.012153766693294</v>
+        <v>1.022409159507289</v>
       </c>
       <c r="L15">
-        <v>0.999522596297325</v>
+        <v>1.006388518224355</v>
       </c>
       <c r="M15">
-        <v>1.00630853430248</v>
+        <v>1.024178594778635</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9772632996091299</v>
+        <v>0.9859134366610188</v>
       </c>
       <c r="D16">
-        <v>1.00128436624443</v>
+        <v>1.011095163014061</v>
       </c>
       <c r="E16">
-        <v>0.988860967507721</v>
+        <v>0.9949680144601246</v>
       </c>
       <c r="F16">
-        <v>0.9961681946360451</v>
+        <v>1.013266458526421</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037645986239214</v>
+        <v>1.040144248197383</v>
       </c>
       <c r="J16">
-        <v>1.006329201298411</v>
+        <v>1.014618697674403</v>
       </c>
       <c r="K16">
-        <v>1.015593860035704</v>
+        <v>1.02523084139197</v>
       </c>
       <c r="L16">
-        <v>1.003397017085303</v>
+        <v>1.009391774375088</v>
       </c>
       <c r="M16">
-        <v>1.010570097573145</v>
+        <v>1.027364257497967</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.980552495656542</v>
+        <v>0.9886333510046676</v>
       </c>
       <c r="D17">
-        <v>1.003762920563187</v>
+        <v>1.013189372788134</v>
       </c>
       <c r="E17">
-        <v>0.9916199655290703</v>
+        <v>0.9971865489447729</v>
       </c>
       <c r="F17">
-        <v>0.9991654885431815</v>
+        <v>1.015588942874065</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038896072598424</v>
+        <v>1.040991599827141</v>
       </c>
       <c r="J17">
-        <v>1.008779086088643</v>
+        <v>1.016535451072291</v>
       </c>
       <c r="K17">
-        <v>1.017705292274566</v>
+        <v>1.026970030169988</v>
       </c>
       <c r="L17">
-        <v>1.005776540025455</v>
+        <v>1.011244088635092</v>
       </c>
       <c r="M17">
-        <v>1.013188165606483</v>
+        <v>1.029329053000102</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9824468072925393</v>
+        <v>0.9902035318231245</v>
       </c>
       <c r="D18">
-        <v>1.005191091601951</v>
+        <v>1.014399017383584</v>
       </c>
       <c r="E18">
-        <v>0.9932099765790121</v>
+        <v>0.9984683108880739</v>
       </c>
       <c r="F18">
-        <v>1.000892901343643</v>
+        <v>1.016930678104371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039614573084485</v>
+        <v>1.041479667357119</v>
       </c>
       <c r="J18">
-        <v>1.010189757217594</v>
+        <v>1.017641815896472</v>
       </c>
       <c r="K18">
-        <v>1.01892081764145</v>
+        <v>1.02797374908103</v>
       </c>
       <c r="L18">
-        <v>1.007146953099936</v>
+        <v>1.012313535762117</v>
       </c>
       <c r="M18">
-        <v>1.014696239926423</v>
+        <v>1.030463428235738</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9830887137242444</v>
+        <v>0.9907362154128408</v>
       </c>
       <c r="D19">
-        <v>1.005675158501121</v>
+        <v>1.014809499781219</v>
       </c>
       <c r="E19">
-        <v>0.9937489408656249</v>
+        <v>0.9989033183647461</v>
       </c>
       <c r="F19">
-        <v>1.001478453218336</v>
+        <v>1.017386024809172</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039857795251835</v>
+        <v>1.041645055094556</v>
       </c>
       <c r="J19">
-        <v>1.010667728760137</v>
+        <v>1.018017120400724</v>
       </c>
       <c r="K19">
-        <v>1.019332623409561</v>
+        <v>1.02831420673006</v>
       </c>
       <c r="L19">
-        <v>1.00761132717064</v>
+        <v>1.01267636361731</v>
       </c>
       <c r="M19">
-        <v>1.015207308646643</v>
+        <v>1.030848281152896</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802021262156014</v>
+        <v>0.9883432295659279</v>
       </c>
       <c r="D20">
-        <v>1.003498825093297</v>
+        <v>1.012965921210739</v>
       </c>
       <c r="E20">
-        <v>0.9913259630301925</v>
+        <v>0.9969498004207704</v>
       </c>
       <c r="F20">
-        <v>0.9988460855762993</v>
+        <v>1.01534111006344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038763061550253</v>
+        <v>1.040901330220835</v>
       </c>
       <c r="J20">
-        <v>1.008518147856317</v>
+        <v>1.016331015170203</v>
       </c>
       <c r="K20">
-        <v>1.017480429622074</v>
+        <v>1.026784548665831</v>
       </c>
       <c r="L20">
-        <v>1.005523069188354</v>
+        <v>1.011046496793102</v>
       </c>
       <c r="M20">
-        <v>1.012909255570054</v>
+        <v>1.029119463746339</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.970524770653853</v>
+        <v>0.9803674048672542</v>
       </c>
       <c r="D21">
-        <v>0.9962118262501691</v>
+        <v>1.006829738470486</v>
       </c>
       <c r="E21">
-        <v>0.9832159708127826</v>
+        <v>0.9904512986658065</v>
       </c>
       <c r="F21">
-        <v>0.9900360682534159</v>
+        <v>1.008537597123683</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035075695798562</v>
+        <v>1.038409456120261</v>
       </c>
       <c r="J21">
-        <v>1.001308706455277</v>
+        <v>1.010709524235526</v>
       </c>
       <c r="K21">
-        <v>1.011265323913671</v>
+        <v>1.021682864400498</v>
       </c>
       <c r="L21">
-        <v>0.9985224546816666</v>
+        <v>1.005615860743907</v>
       </c>
       <c r="M21">
-        <v>1.005208701558894</v>
+        <v>1.023359007464732</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9641962585539156</v>
+        <v>0.9751919013124585</v>
       </c>
       <c r="D22">
-        <v>0.9914547670322552</v>
+        <v>1.002855311182731</v>
       </c>
       <c r="E22">
-        <v>0.9779235769515633</v>
+        <v>0.9862448272755334</v>
       </c>
       <c r="F22">
-        <v>0.9842874016595213</v>
+        <v>1.004133018827921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032651592458673</v>
+        <v>1.03678284822897</v>
       </c>
       <c r="J22">
-        <v>0.9965925101049707</v>
+        <v>1.007060927687363</v>
       </c>
       <c r="K22">
-        <v>1.007197428853448</v>
+        <v>1.01837041522411</v>
       </c>
       <c r="L22">
-        <v>0.9939454353758578</v>
+        <v>1.002093792005067</v>
       </c>
       <c r="M22">
-        <v>1.000176689410343</v>
+        <v>1.019623042046999</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9675756010142854</v>
+        <v>0.9779514934234711</v>
       </c>
       <c r="D23">
-        <v>0.9939941210793334</v>
+        <v>1.004973744292355</v>
       </c>
       <c r="E23">
-        <v>0.9807485344234714</v>
+        <v>0.9884867065073021</v>
       </c>
       <c r="F23">
-        <v>0.9873558618721441</v>
+        <v>1.006480539028921</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033947185298476</v>
+        <v>1.037651035102445</v>
       </c>
       <c r="J23">
-        <v>0.9991109986024235</v>
+        <v>1.00900641246149</v>
       </c>
       <c r="K23">
-        <v>1.009369907375932</v>
+        <v>1.020136766657734</v>
       </c>
       <c r="L23">
-        <v>0.9963893530028358</v>
+        <v>1.003971556841696</v>
       </c>
       <c r="M23">
-        <v>1.002863304531206</v>
+        <v>1.02161483636941</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9803605176631534</v>
+        <v>0.9884743731782313</v>
       </c>
       <c r="D24">
-        <v>1.003618212450185</v>
+        <v>1.013066925950854</v>
       </c>
       <c r="E24">
-        <v>0.991458869433865</v>
+        <v>0.9970568147054226</v>
       </c>
       <c r="F24">
-        <v>0.9989904742596564</v>
+        <v>1.015453134892132</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038823196338348</v>
+        <v>1.040942138218795</v>
       </c>
       <c r="J24">
-        <v>1.008636110986518</v>
+        <v>1.016423426843716</v>
       </c>
       <c r="K24">
-        <v>1.017582084770418</v>
+        <v>1.026868392816243</v>
       </c>
       <c r="L24">
-        <v>1.005637655713629</v>
+        <v>1.011135813869786</v>
       </c>
       <c r="M24">
-        <v>1.013035341525405</v>
+        <v>1.029214204035132</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942558115182646</v>
+        <v>1.000051657318397</v>
       </c>
       <c r="D25">
-        <v>1.014105212047304</v>
+        <v>1.021996595562879</v>
       </c>
       <c r="E25">
-        <v>1.003139010267897</v>
+        <v>1.006524522116699</v>
       </c>
       <c r="F25">
-        <v>1.01168137483744</v>
+        <v>1.025362221978226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044067135173416</v>
+        <v>1.044520576762731</v>
       </c>
       <c r="J25">
-        <v>1.018978049055795</v>
+        <v>1.02457728311362</v>
       </c>
       <c r="K25">
-        <v>1.026488438875178</v>
+        <v>1.034262776286476</v>
       </c>
       <c r="L25">
-        <v>1.015688791800851</v>
+        <v>1.019022390627731</v>
       </c>
       <c r="M25">
-        <v>1.024101019081926</v>
+        <v>1.03757917846524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008837955282042</v>
+        <v>1.01922348406112</v>
       </c>
       <c r="D2">
-        <v>1.028789355355334</v>
+        <v>1.034872359980013</v>
       </c>
       <c r="E2">
-        <v>1.013736910924098</v>
+        <v>1.020612173658882</v>
       </c>
       <c r="F2">
-        <v>1.032907794310012</v>
+        <v>1.024234279081058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047199861639463</v>
+        <v>1.054959091970615</v>
       </c>
       <c r="J2">
-        <v>1.030757500107994</v>
+        <v>1.040844042213252</v>
       </c>
       <c r="K2">
-        <v>1.039861665794295</v>
+        <v>1.045866339627644</v>
       </c>
       <c r="L2">
-        <v>1.025008129396779</v>
+        <v>1.031791626912461</v>
       </c>
       <c r="M2">
-        <v>1.043926945534041</v>
+        <v>1.035366008601605</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014985319566221</v>
+        <v>1.026639756584844</v>
       </c>
       <c r="D3">
-        <v>1.033549059435891</v>
+        <v>1.040833675469864</v>
       </c>
       <c r="E3">
-        <v>1.018797042309909</v>
+        <v>1.027063048231423</v>
       </c>
       <c r="F3">
-        <v>1.038199724047569</v>
+        <v>1.032205493681676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049052172098605</v>
+        <v>1.058406623182973</v>
       </c>
       <c r="J3">
-        <v>1.035075641600079</v>
+        <v>1.046429630711401</v>
       </c>
       <c r="K3">
-        <v>1.043769941247212</v>
+        <v>1.050969438408864</v>
       </c>
       <c r="L3">
-        <v>1.029194930625994</v>
+        <v>1.037360977476374</v>
       </c>
       <c r="M3">
-        <v>1.048366093537669</v>
+        <v>1.042442237238875</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0188636534274</v>
+        <v>1.031284225787134</v>
       </c>
       <c r="D4">
-        <v>1.036554624503116</v>
+        <v>1.04456908680106</v>
       </c>
       <c r="E4">
-        <v>1.021995400530602</v>
+        <v>1.031102107496485</v>
       </c>
       <c r="F4">
-        <v>1.041543630880839</v>
+        <v>1.037204079894162</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050210121959056</v>
+        <v>1.060552684463127</v>
       </c>
       <c r="J4">
-        <v>1.037796831339468</v>
+        <v>1.049920174045482</v>
       </c>
       <c r="K4">
-        <v>1.046231011281352</v>
+        <v>1.054157789630628</v>
       </c>
       <c r="L4">
-        <v>1.031835414900256</v>
+        <v>1.040839107531248</v>
       </c>
       <c r="M4">
-        <v>1.051165239722719</v>
+        <v>1.046873299164473</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020471407102741</v>
+        <v>1.033201940476341</v>
       </c>
       <c r="D5">
-        <v>1.037801137976004</v>
+        <v>1.046111875076086</v>
       </c>
       <c r="E5">
-        <v>1.023322630859041</v>
+        <v>1.032769585503492</v>
       </c>
       <c r="F5">
-        <v>1.042931020454325</v>
+        <v>1.039269606661385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050687536642391</v>
+        <v>1.061435648292891</v>
       </c>
       <c r="J5">
-        <v>1.03892409618998</v>
+        <v>1.051359600676436</v>
       </c>
       <c r="K5">
-        <v>1.047250062893369</v>
+        <v>1.05547242277727</v>
       </c>
       <c r="L5">
-        <v>1.032929736944894</v>
+        <v>1.042272864346257</v>
       </c>
       <c r="M5">
-        <v>1.052325190083031</v>
+        <v>1.04870278981659</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020740055732319</v>
+        <v>1.033521949848205</v>
       </c>
       <c r="D6">
-        <v>1.038009455760824</v>
+        <v>1.046369343227056</v>
       </c>
       <c r="E6">
-        <v>1.02354448321404</v>
+        <v>1.033047820729897</v>
       </c>
       <c r="F6">
-        <v>1.043162914389006</v>
+        <v>1.039614375814347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050767155565329</v>
+        <v>1.06158280214393</v>
       </c>
       <c r="J6">
-        <v>1.039112408808794</v>
+        <v>1.051599689331902</v>
       </c>
       <c r="K6">
-        <v>1.047420270785958</v>
+        <v>1.055691685812066</v>
       </c>
       <c r="L6">
-        <v>1.033112575046153</v>
+        <v>1.042511974700937</v>
       </c>
       <c r="M6">
-        <v>1.052518985480128</v>
+        <v>1.049008070929825</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018885224091842</v>
+        <v>1.031309984524523</v>
       </c>
       <c r="D7">
-        <v>1.036571346411996</v>
+        <v>1.044589807943523</v>
       </c>
       <c r="E7">
-        <v>1.022013202227887</v>
+        <v>1.031124506169792</v>
       </c>
       <c r="F7">
-        <v>1.041562240430564</v>
+        <v>1.037231817700533</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050216537653957</v>
+        <v>1.060564556960185</v>
       </c>
       <c r="J7">
-        <v>1.037811958678019</v>
+        <v>1.049939515713374</v>
       </c>
       <c r="K7">
-        <v>1.04624468828443</v>
+        <v>1.054175455155005</v>
       </c>
       <c r="L7">
-        <v>1.031850098231532</v>
+        <v>1.040858375205155</v>
       </c>
       <c r="M7">
-        <v>1.051180804156301</v>
+        <v>1.04689787330151</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010936760463513</v>
+        <v>1.021763154472889</v>
       </c>
       <c r="D8">
-        <v>1.03041377193365</v>
+        <v>1.036913287619619</v>
       </c>
       <c r="E8">
-        <v>1.015463221800807</v>
+        <v>1.022821381818998</v>
       </c>
       <c r="F8">
-        <v>1.03471338284864</v>
+        <v>1.026962606033723</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047834479036235</v>
+        <v>1.056142401228591</v>
       </c>
       <c r="J8">
-        <v>1.032232398254982</v>
+        <v>1.042758352867314</v>
       </c>
       <c r="K8">
-        <v>1.04119694514065</v>
+        <v>1.047615423967596</v>
       </c>
       <c r="L8">
-        <v>1.02643772981036</v>
+        <v>1.033700847615673</v>
       </c>
       <c r="M8">
-        <v>1.045442805926514</v>
+        <v>1.037789329262281</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9961153215679395</v>
+        <v>1.003651106728481</v>
       </c>
       <c r="D9">
-        <v>1.018957657844848</v>
+        <v>1.022371060615648</v>
       </c>
       <c r="E9">
-        <v>1.00330089797298</v>
+        <v>1.007065439637893</v>
       </c>
       <c r="F9">
-        <v>1.021988769731193</v>
+        <v>1.007532960994945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043309513546523</v>
+        <v>1.047648809355019</v>
       </c>
       <c r="J9">
-        <v>1.021806007583734</v>
+        <v>1.02907559053789</v>
       </c>
       <c r="K9">
-        <v>1.031750469836531</v>
+        <v>1.035111318210478</v>
       </c>
       <c r="L9">
-        <v>1.016340646469831</v>
+        <v>1.020044915743472</v>
       </c>
       <c r="M9">
-        <v>1.034734890985128</v>
+        <v>1.020504992114079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9856038101824586</v>
+        <v>0.990538808230945</v>
       </c>
       <c r="D10">
-        <v>1.010856860589169</v>
+        <v>1.01186460178573</v>
       </c>
       <c r="E10">
-        <v>0.9947156060841758</v>
+        <v>0.9956618490211583</v>
       </c>
       <c r="F10">
-        <v>1.01300221237725</v>
+        <v>0.9935015345945818</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040047639863336</v>
+        <v>1.04143169165849</v>
       </c>
       <c r="J10">
-        <v>1.01440048089329</v>
+        <v>1.019132898413722</v>
       </c>
       <c r="K10">
-        <v>1.025032819392494</v>
+        <v>1.026022891303303</v>
       </c>
       <c r="L10">
-        <v>1.009180931913269</v>
+        <v>1.010109874383979</v>
       </c>
       <c r="M10">
-        <v>1.027140610244893</v>
+        <v>1.00798912055888</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9808818287998003</v>
+        <v>0.9845693474678844</v>
       </c>
       <c r="D11">
-        <v>1.007225103193619</v>
+        <v>1.007088319586974</v>
       </c>
       <c r="E11">
-        <v>0.9908698531054537</v>
+        <v>0.9904724116399248</v>
       </c>
       <c r="F11">
-        <v>1.008975837249082</v>
+        <v>0.9871215075712854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038570741810956</v>
+        <v>1.038585841472205</v>
       </c>
       <c r="J11">
-        <v>1.011072156322275</v>
+        <v>1.014598453678228</v>
       </c>
       <c r="K11">
-        <v>1.022012038908567</v>
+        <v>1.021877787266202</v>
       </c>
       <c r="L11">
-        <v>1.005966029352468</v>
+        <v>1.005576269154321</v>
       </c>
       <c r="M11">
-        <v>1.023730444600102</v>
+        <v>1.002290449870115</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9791002813863006</v>
+        <v>0.9823036170837182</v>
       </c>
       <c r="D12">
-        <v>1.00585612638684</v>
+        <v>1.005276664406924</v>
       </c>
       <c r="E12">
-        <v>0.9894206651480354</v>
+        <v>0.9885032002717088</v>
       </c>
       <c r="F12">
-        <v>1.007458468883264</v>
+        <v>0.9847010873156975</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038011867746934</v>
+        <v>1.037503435717038</v>
       </c>
       <c r="J12">
-        <v>1.009816270085083</v>
+        <v>1.012876272394833</v>
       </c>
       <c r="K12">
-        <v>1.020871985731837</v>
+        <v>1.020303465304226</v>
       </c>
       <c r="L12">
-        <v>1.004753394504925</v>
+        <v>1.003854025918964</v>
       </c>
       <c r="M12">
-        <v>1.02244415795405</v>
+        <v>1.000127379400176</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9794837121811778</v>
+        <v>0.9827918953351802</v>
       </c>
       <c r="D13">
-        <v>1.006150703721405</v>
+        <v>1.005667029692199</v>
       </c>
       <c r="E13">
-        <v>0.9897324823742649</v>
+        <v>0.9889275538165776</v>
       </c>
       <c r="F13">
-        <v>1.007784961300097</v>
+        <v>0.9852226513645044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038132223993772</v>
+        <v>1.03773680095412</v>
       </c>
       <c r="J13">
-        <v>1.010086571407661</v>
+        <v>1.013247461569782</v>
       </c>
       <c r="K13">
-        <v>1.021117365737232</v>
+        <v>1.020642785826787</v>
       </c>
       <c r="L13">
-        <v>1.005014366267154</v>
+        <v>1.004225245312615</v>
       </c>
       <c r="M13">
-        <v>1.022720980032644</v>
+        <v>1.000593539389196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9807351406548709</v>
+        <v>0.9843830778435364</v>
       </c>
       <c r="D14">
-        <v>1.00711235897018</v>
+        <v>1.006939354911595</v>
       </c>
       <c r="E14">
-        <v>0.9907504939310486</v>
+        <v>0.9903105092062157</v>
       </c>
       <c r="F14">
-        <v>1.008850864828959</v>
+        <v>0.9869224977497348</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038524758668833</v>
+        <v>1.038496900227044</v>
       </c>
       <c r="J14">
-        <v>1.010968752258546</v>
+        <v>1.014456892285201</v>
       </c>
       <c r="K14">
-        <v>1.021918176179675</v>
+        <v>1.02174837983438</v>
       </c>
       <c r="L14">
-        <v>1.005866177140663</v>
+        <v>1.005434710271503</v>
       </c>
       <c r="M14">
-        <v>1.023624527549613</v>
+        <v>1.00211262257373</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9815024677170673</v>
+        <v>0.9853568951997325</v>
       </c>
       <c r="D15">
-        <v>1.007702176516787</v>
+        <v>1.007718191817658</v>
       </c>
       <c r="E15">
-        <v>0.9913749356568574</v>
+        <v>0.9911569544015387</v>
       </c>
       <c r="F15">
-        <v>1.00950466825005</v>
+        <v>0.9879629669380589</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038765229964189</v>
+        <v>1.038961793922699</v>
       </c>
       <c r="J15">
-        <v>1.011509654399372</v>
+        <v>1.015196930251657</v>
       </c>
       <c r="K15">
-        <v>1.022409159507289</v>
+        <v>1.022424880420205</v>
       </c>
       <c r="L15">
-        <v>1.006388518224355</v>
+        <v>1.006174719771948</v>
       </c>
       <c r="M15">
-        <v>1.024178594778635</v>
+        <v>1.003042298543845</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9859134366610188</v>
+        <v>0.9909284593455874</v>
       </c>
       <c r="D16">
-        <v>1.011095163014061</v>
+        <v>1.012176524534907</v>
       </c>
       <c r="E16">
-        <v>0.9949680144601246</v>
+        <v>0.9960006399020112</v>
       </c>
       <c r="F16">
-        <v>1.013266458526421</v>
+        <v>0.9939181443173887</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040144248197383</v>
+        <v>1.041617138403669</v>
       </c>
       <c r="J16">
-        <v>1.014618697674403</v>
+        <v>1.019428722212508</v>
       </c>
       <c r="K16">
-        <v>1.02523084139197</v>
+        <v>1.026293311679227</v>
       </c>
       <c r="L16">
-        <v>1.009391774375088</v>
+        <v>1.010405590131251</v>
       </c>
       <c r="M16">
-        <v>1.027364257497967</v>
+        <v>1.008361080207274</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9886333510046676</v>
+        <v>0.9943422176037432</v>
       </c>
       <c r="D17">
-        <v>1.013189372788134</v>
+        <v>1.01491008867131</v>
       </c>
       <c r="E17">
-        <v>0.9971865489447729</v>
+        <v>0.9989690619030022</v>
       </c>
       <c r="F17">
-        <v>1.015588942874065</v>
+        <v>0.9975689700625692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040991599827141</v>
+        <v>1.043240117311942</v>
       </c>
       <c r="J17">
-        <v>1.016535451072291</v>
+        <v>1.022019565798966</v>
       </c>
       <c r="K17">
-        <v>1.026970030169988</v>
+        <v>1.028661644794295</v>
       </c>
       <c r="L17">
-        <v>1.011244088635092</v>
+        <v>1.012995191376554</v>
       </c>
       <c r="M17">
-        <v>1.029329053000102</v>
+        <v>1.01161975872757</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9902035318231245</v>
+        <v>0.9963055973953566</v>
       </c>
       <c r="D18">
-        <v>1.014399017383584</v>
+        <v>1.016482892986734</v>
       </c>
       <c r="E18">
-        <v>0.9984683108880739</v>
+        <v>1.000676501043382</v>
       </c>
       <c r="F18">
-        <v>1.016930678104371</v>
+        <v>0.9996694361862635</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041479667357119</v>
+        <v>1.04417210030735</v>
       </c>
       <c r="J18">
-        <v>1.017641815896472</v>
+        <v>1.023508905036941</v>
       </c>
       <c r="K18">
-        <v>1.02797374908103</v>
+        <v>1.030023048974474</v>
       </c>
       <c r="L18">
-        <v>1.012313535762117</v>
+        <v>1.014483567406636</v>
       </c>
       <c r="M18">
-        <v>1.030463428235738</v>
+        <v>1.013493878032743</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9907362154128408</v>
+        <v>0.9969704708509375</v>
       </c>
       <c r="D19">
-        <v>1.014809499781219</v>
+        <v>1.017015605147348</v>
       </c>
       <c r="E19">
-        <v>0.9989033183647461</v>
+        <v>1.001254731693299</v>
       </c>
       <c r="F19">
-        <v>1.017386024809172</v>
+        <v>1.000380858778954</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041645055094556</v>
+        <v>1.044487456049394</v>
       </c>
       <c r="J19">
-        <v>1.018017120400724</v>
+        <v>1.024013121009178</v>
       </c>
       <c r="K19">
-        <v>1.02831420673006</v>
+        <v>1.030483947466777</v>
       </c>
       <c r="L19">
-        <v>1.01267636361731</v>
+        <v>1.014987414577626</v>
       </c>
       <c r="M19">
-        <v>1.030848281152896</v>
+        <v>1.014128513191055</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9883432295659279</v>
+        <v>0.9939788608753579</v>
       </c>
       <c r="D20">
-        <v>1.012965921210739</v>
+        <v>1.014619064460918</v>
       </c>
       <c r="E20">
-        <v>0.9969498004207704</v>
+        <v>0.9986530857193135</v>
       </c>
       <c r="F20">
-        <v>1.01534111006344</v>
+        <v>0.9971803034381231</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040901330220835</v>
+        <v>1.043067519803627</v>
       </c>
       <c r="J20">
-        <v>1.016331015170203</v>
+        <v>1.021743876843048</v>
       </c>
       <c r="K20">
-        <v>1.026784548665831</v>
+        <v>1.028409635426422</v>
       </c>
       <c r="L20">
-        <v>1.011046496793102</v>
+        <v>1.012719660409991</v>
       </c>
       <c r="M20">
-        <v>1.029119463746339</v>
+        <v>1.011272915678991</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9803674048672542</v>
+        <v>0.983915890660687</v>
       </c>
       <c r="D21">
-        <v>1.006829738470486</v>
+        <v>1.006565753036439</v>
       </c>
       <c r="E21">
-        <v>0.9904512986658065</v>
+        <v>0.9899044458129864</v>
       </c>
       <c r="F21">
-        <v>1.008537597123683</v>
+        <v>0.9864233747792401</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038409456120261</v>
+        <v>1.038273788671614</v>
       </c>
       <c r="J21">
-        <v>1.010709524235526</v>
+        <v>1.014101821212765</v>
       </c>
       <c r="K21">
-        <v>1.021682864400498</v>
+        <v>1.021423793806853</v>
       </c>
       <c r="L21">
-        <v>1.005615860743907</v>
+        <v>1.005079639441958</v>
       </c>
       <c r="M21">
-        <v>1.023359007464732</v>
+        <v>1.001666607837171</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9751919013124585</v>
+        <v>0.9773060454798478</v>
       </c>
       <c r="D22">
-        <v>1.002855311182731</v>
+        <v>1.001283080921469</v>
       </c>
       <c r="E22">
-        <v>0.9862448272755334</v>
+        <v>0.9841606857147689</v>
       </c>
       <c r="F22">
-        <v>1.004133018827921</v>
+        <v>0.9793643699471011</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03678284822897</v>
+        <v>1.035111873407136</v>
       </c>
       <c r="J22">
-        <v>1.007060927687363</v>
+        <v>1.009075655806947</v>
       </c>
       <c r="K22">
-        <v>1.01837041522411</v>
+        <v>1.016829162508773</v>
       </c>
       <c r="L22">
-        <v>1.002093792005067</v>
+        <v>1.00005259111584</v>
       </c>
       <c r="M22">
-        <v>1.019623042046999</v>
+        <v>0.9953560143992577</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9779514934234711</v>
+        <v>0.9808385736366727</v>
       </c>
       <c r="D23">
-        <v>1.004973744292355</v>
+        <v>1.004105591916499</v>
       </c>
       <c r="E23">
-        <v>0.9884867065073021</v>
+        <v>0.9872300372684615</v>
       </c>
       <c r="F23">
-        <v>1.006480539028921</v>
+        <v>0.983136336077732</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037651035102445</v>
+        <v>1.036802915879542</v>
       </c>
       <c r="J23">
-        <v>1.00900641246149</v>
+        <v>1.011762389365041</v>
       </c>
       <c r="K23">
-        <v>1.020136766657734</v>
+        <v>1.019285215679425</v>
       </c>
       <c r="L23">
-        <v>1.003971556841696</v>
+        <v>1.002739997895362</v>
       </c>
       <c r="M23">
-        <v>1.02161483636941</v>
+        <v>0.9987286818673816</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9884743731782313</v>
+        <v>0.9941431317359655</v>
       </c>
       <c r="D24">
-        <v>1.013066925950854</v>
+        <v>1.014750632386269</v>
       </c>
       <c r="E24">
-        <v>0.9970568147054226</v>
+        <v>0.99879593561289</v>
       </c>
       <c r="F24">
-        <v>1.015453134892132</v>
+        <v>0.9973560144104029</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040942138218795</v>
+        <v>1.043145554368006</v>
       </c>
       <c r="J24">
-        <v>1.016423426843716</v>
+        <v>1.021868516101395</v>
       </c>
       <c r="K24">
-        <v>1.026868392816243</v>
+        <v>1.028523569200125</v>
       </c>
       <c r="L24">
-        <v>1.011135813869786</v>
+        <v>1.01284422901677</v>
       </c>
       <c r="M24">
-        <v>1.029214204035132</v>
+        <v>1.011429721040277</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000051657318397</v>
+        <v>1.0085025749078</v>
       </c>
       <c r="D25">
-        <v>1.021996595562879</v>
+        <v>1.026263203847229</v>
       </c>
       <c r="E25">
-        <v>1.006524522116699</v>
+        <v>1.011285707683963</v>
       </c>
       <c r="F25">
-        <v>1.025362221978226</v>
+        <v>1.01273136525469</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044520576762731</v>
+        <v>1.049935647129661</v>
       </c>
       <c r="J25">
-        <v>1.02457728311362</v>
+        <v>1.032747142949372</v>
       </c>
       <c r="K25">
-        <v>1.034262776286476</v>
+        <v>1.038467052424471</v>
       </c>
       <c r="L25">
-        <v>1.019022390627731</v>
+        <v>1.02371131781417</v>
       </c>
       <c r="M25">
-        <v>1.03757917846524</v>
+        <v>1.025135206469377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01922348406112</v>
+        <v>1.051558125831511</v>
       </c>
       <c r="D2">
-        <v>1.034872359980013</v>
+        <v>1.053748318504431</v>
       </c>
       <c r="E2">
-        <v>1.020612173658882</v>
+        <v>1.048251097400144</v>
       </c>
       <c r="F2">
-        <v>1.024234279081058</v>
+        <v>1.059505324490594</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054959091970615</v>
+        <v>1.049647275507857</v>
       </c>
       <c r="J2">
-        <v>1.040844042213252</v>
+        <v>1.056585365705097</v>
       </c>
       <c r="K2">
-        <v>1.045866339627644</v>
+        <v>1.056493430923029</v>
       </c>
       <c r="L2">
-        <v>1.031791626912461</v>
+        <v>1.051011464325533</v>
       </c>
       <c r="M2">
-        <v>1.035366008601605</v>
+        <v>1.062234645293643</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026639756584844</v>
+        <v>1.05294731746347</v>
       </c>
       <c r="D3">
-        <v>1.040833675469864</v>
+        <v>1.054866382000574</v>
       </c>
       <c r="E3">
-        <v>1.027063048231423</v>
+        <v>1.049473553825967</v>
       </c>
       <c r="F3">
-        <v>1.032205493681676</v>
+        <v>1.0610855122101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058406623182973</v>
+        <v>1.050193171645195</v>
       </c>
       <c r="J3">
-        <v>1.046429630711401</v>
+        <v>1.057622546760413</v>
       </c>
       <c r="K3">
-        <v>1.050969438408864</v>
+        <v>1.057423820220612</v>
       </c>
       <c r="L3">
-        <v>1.037360977476374</v>
+        <v>1.052044866240877</v>
       </c>
       <c r="M3">
-        <v>1.042442237238875</v>
+        <v>1.063627139126467</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031284225787134</v>
+        <v>1.053844158736299</v>
       </c>
       <c r="D4">
-        <v>1.04456908680106</v>
+        <v>1.055588056272542</v>
       </c>
       <c r="E4">
-        <v>1.031102107496485</v>
+        <v>1.050262215559527</v>
       </c>
       <c r="F4">
-        <v>1.037204079894162</v>
+        <v>1.062106466013311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060552684463127</v>
+        <v>1.05054404292949</v>
       </c>
       <c r="J4">
-        <v>1.049920174045482</v>
+        <v>1.058291167769236</v>
       </c>
       <c r="K4">
-        <v>1.054157789630628</v>
+        <v>1.058023473583255</v>
       </c>
       <c r="L4">
-        <v>1.040839107531248</v>
+        <v>1.052710639686535</v>
       </c>
       <c r="M4">
-        <v>1.046873299164473</v>
+        <v>1.064526154751455</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033201940476341</v>
+        <v>1.054220705838856</v>
       </c>
       <c r="D5">
-        <v>1.046111875076086</v>
+        <v>1.055891025821862</v>
       </c>
       <c r="E5">
-        <v>1.032769585503492</v>
+        <v>1.050593213435466</v>
       </c>
       <c r="F5">
-        <v>1.039269606661385</v>
+        <v>1.062535316866567</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061435648292891</v>
+        <v>1.050690987816083</v>
       </c>
       <c r="J5">
-        <v>1.051359600676436</v>
+        <v>1.058571662584958</v>
       </c>
       <c r="K5">
-        <v>1.05547242277727</v>
+        <v>1.058275005659778</v>
       </c>
       <c r="L5">
-        <v>1.042272864346257</v>
+        <v>1.05298984142194</v>
       </c>
       <c r="M5">
-        <v>1.04870278981659</v>
+        <v>1.064903625239759</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033521949848205</v>
+        <v>1.054283901543089</v>
       </c>
       <c r="D6">
-        <v>1.046369343227056</v>
+        <v>1.055941871140527</v>
       </c>
       <c r="E6">
-        <v>1.033047820729897</v>
+        <v>1.050648757059594</v>
       </c>
       <c r="F6">
-        <v>1.039614375814347</v>
+        <v>1.062607302070337</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06158280214393</v>
+        <v>1.050715627692171</v>
       </c>
       <c r="J6">
-        <v>1.051599689331902</v>
+        <v>1.058618724275321</v>
       </c>
       <c r="K6">
-        <v>1.055691685812066</v>
+        <v>1.058317206189722</v>
       </c>
       <c r="L6">
-        <v>1.042511974700937</v>
+        <v>1.053036680380433</v>
       </c>
       <c r="M6">
-        <v>1.049008070929825</v>
+        <v>1.064966976537437</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031309984524523</v>
+        <v>1.053849192072976</v>
       </c>
       <c r="D7">
-        <v>1.044589807943523</v>
+        <v>1.055592106218936</v>
       </c>
       <c r="E7">
-        <v>1.031124506169792</v>
+        <v>1.050266640543588</v>
       </c>
       <c r="F7">
-        <v>1.037231817700533</v>
+        <v>1.06211219773551</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060564556960185</v>
+        <v>1.050546008615752</v>
       </c>
       <c r="J7">
-        <v>1.049939515713374</v>
+        <v>1.058294918079007</v>
       </c>
       <c r="K7">
-        <v>1.054175455155005</v>
+        <v>1.058026836769608</v>
       </c>
       <c r="L7">
-        <v>1.040858375205155</v>
+        <v>1.052714373094769</v>
       </c>
       <c r="M7">
-        <v>1.04689787330151</v>
+        <v>1.064531200389616</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021763154472889</v>
+        <v>1.052028040645142</v>
       </c>
       <c r="D8">
-        <v>1.036913287619619</v>
+        <v>1.054126546829946</v>
       </c>
       <c r="E8">
-        <v>1.022821381818998</v>
+        <v>1.04866472288984</v>
       </c>
       <c r="F8">
-        <v>1.026962606033723</v>
+        <v>1.060039679217146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056142401228591</v>
+        <v>1.049832254490903</v>
       </c>
       <c r="J8">
-        <v>1.042758352867314</v>
+        <v>1.056936408167732</v>
       </c>
       <c r="K8">
-        <v>1.047615423967596</v>
+        <v>1.056808354454157</v>
       </c>
       <c r="L8">
-        <v>1.033700847615673</v>
+        <v>1.051361313085015</v>
       </c>
       <c r="M8">
-        <v>1.037789329262281</v>
+        <v>1.062705668486253</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003651106728481</v>
+        <v>1.048802818774899</v>
       </c>
       <c r="D9">
-        <v>1.022371060615648</v>
+        <v>1.051530099403937</v>
       </c>
       <c r="E9">
-        <v>1.007065439637893</v>
+        <v>1.045823635147012</v>
       </c>
       <c r="F9">
-        <v>1.007532960994945</v>
+        <v>1.056375490799912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047648809355019</v>
+        <v>1.048556291757873</v>
       </c>
       <c r="J9">
-        <v>1.02907559053789</v>
+        <v>1.054523083058827</v>
       </c>
       <c r="K9">
-        <v>1.035111318210478</v>
+        <v>1.054642834580094</v>
       </c>
       <c r="L9">
-        <v>1.020044915743472</v>
+        <v>1.048954496490032</v>
       </c>
       <c r="M9">
-        <v>1.020504992114079</v>
+        <v>1.059473002969653</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.990538808230945</v>
+        <v>1.046641335068541</v>
       </c>
       <c r="D10">
-        <v>1.01186460178573</v>
+        <v>1.049789401259321</v>
       </c>
       <c r="E10">
-        <v>0.9956618490211583</v>
+        <v>1.043916832333014</v>
       </c>
       <c r="F10">
-        <v>0.9935015345945818</v>
+        <v>1.053923966951429</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04143169165849</v>
+        <v>1.047693160610111</v>
       </c>
       <c r="J10">
-        <v>1.019132898413722</v>
+        <v>1.052900729974029</v>
       </c>
       <c r="K10">
-        <v>1.026022891303303</v>
+        <v>1.053186444732701</v>
       </c>
       <c r="L10">
-        <v>1.010109874383979</v>
+        <v>1.047334381436358</v>
       </c>
       <c r="M10">
-        <v>1.00798912055888</v>
+        <v>1.057306724343322</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9845693474678844</v>
+        <v>1.045702588659876</v>
       </c>
       <c r="D11">
-        <v>1.007088319586974</v>
+        <v>1.049033270768513</v>
       </c>
       <c r="E11">
-        <v>0.9904724116399248</v>
+        <v>1.04308804476538</v>
       </c>
       <c r="F11">
-        <v>0.9871215075712854</v>
+        <v>1.052860232595178</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038585841472205</v>
+        <v>1.047316401768258</v>
       </c>
       <c r="J11">
-        <v>1.014598453678228</v>
+        <v>1.052194951347475</v>
       </c>
       <c r="K11">
-        <v>1.021877787266202</v>
+        <v>1.052552720887711</v>
       </c>
       <c r="L11">
-        <v>1.005576269154321</v>
+        <v>1.046629069129724</v>
       </c>
       <c r="M11">
-        <v>1.002290449870115</v>
+        <v>1.056365937556086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9823036170837182</v>
+        <v>1.045353464631602</v>
       </c>
       <c r="D12">
-        <v>1.005276664406924</v>
+        <v>1.048752043138157</v>
       </c>
       <c r="E12">
-        <v>0.9885032002717088</v>
+        <v>1.042779717460563</v>
       </c>
       <c r="F12">
-        <v>0.9847010873156975</v>
+        <v>1.052464771539168</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037503435717038</v>
+        <v>1.047175998949094</v>
       </c>
       <c r="J12">
-        <v>1.012876272394833</v>
+        <v>1.051932292012034</v>
       </c>
       <c r="K12">
-        <v>1.020303465304226</v>
+        <v>1.052316855613463</v>
       </c>
       <c r="L12">
-        <v>1.003854025918964</v>
+        <v>1.046366507086501</v>
       </c>
       <c r="M12">
-        <v>1.000127379400176</v>
+        <v>1.05601606070102</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9827918953351802</v>
+        <v>1.045428372617767</v>
       </c>
       <c r="D13">
-        <v>1.005667029692199</v>
+        <v>1.048812384144973</v>
       </c>
       <c r="E13">
-        <v>0.9889275538165776</v>
+        <v>1.042845876514342</v>
       </c>
       <c r="F13">
-        <v>0.9852226513645044</v>
+        <v>1.052549614965605</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03773680095412</v>
+        <v>1.047206136619744</v>
       </c>
       <c r="J13">
-        <v>1.013247461569782</v>
+        <v>1.051988656157945</v>
       </c>
       <c r="K13">
-        <v>1.020642785826787</v>
+        <v>1.052367470983133</v>
       </c>
       <c r="L13">
-        <v>1.004225245312615</v>
+        <v>1.04642285380463</v>
       </c>
       <c r="M13">
-        <v>1.000593539389196</v>
+        <v>1.056091129947336</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9843830778435364</v>
+        <v>1.045673738824015</v>
       </c>
       <c r="D14">
-        <v>1.006939354911595</v>
+        <v>1.049010031934424</v>
       </c>
       <c r="E14">
-        <v>0.9903105092062157</v>
+        <v>1.043062568149238</v>
       </c>
       <c r="F14">
-        <v>0.9869224977497348</v>
+        <v>1.052827550716797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038496900227044</v>
+        <v>1.047304805392709</v>
       </c>
       <c r="J14">
-        <v>1.014456892285201</v>
+        <v>1.052173250124121</v>
       </c>
       <c r="K14">
-        <v>1.02174837983438</v>
+        <v>1.052533233858449</v>
       </c>
       <c r="L14">
-        <v>1.005434710271503</v>
+        <v>1.046607377499546</v>
       </c>
       <c r="M14">
-        <v>1.00211262257373</v>
+        <v>1.056337025389985</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9853568951997325</v>
+        <v>1.045824859530916</v>
       </c>
       <c r="D15">
-        <v>1.007718191817658</v>
+        <v>1.049131760405309</v>
       </c>
       <c r="E15">
-        <v>0.9911569544015387</v>
+        <v>1.043196015327771</v>
       </c>
       <c r="F15">
-        <v>0.9879629669380589</v>
+        <v>1.052998750358128</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038961793922699</v>
+        <v>1.047365537681034</v>
       </c>
       <c r="J15">
-        <v>1.015196930251657</v>
+        <v>1.05228691784696</v>
       </c>
       <c r="K15">
-        <v>1.022424880420205</v>
+        <v>1.052635303088835</v>
       </c>
       <c r="L15">
-        <v>1.006174719771948</v>
+        <v>1.046720991854296</v>
       </c>
       <c r="M15">
-        <v>1.003042298543845</v>
+        <v>1.056488472837698</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9909284593455874</v>
+        <v>1.046703576553772</v>
       </c>
       <c r="D16">
-        <v>1.012176524534907</v>
+        <v>1.049839532056078</v>
       </c>
       <c r="E16">
-        <v>0.9960006399020112</v>
+        <v>1.043971769574214</v>
       </c>
       <c r="F16">
-        <v>0.9939181443173887</v>
+        <v>1.053994516035383</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041617138403669</v>
+        <v>1.047718100899351</v>
       </c>
       <c r="J16">
-        <v>1.019428722212508</v>
+        <v>1.052947500234685</v>
       </c>
       <c r="K16">
-        <v>1.026293311679227</v>
+        <v>1.053228437070134</v>
       </c>
       <c r="L16">
-        <v>1.010405590131251</v>
+        <v>1.047381110123395</v>
       </c>
       <c r="M16">
-        <v>1.008361080207274</v>
+        <v>1.05736910196938</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9943422176037432</v>
+        <v>1.047254013476258</v>
       </c>
       <c r="D17">
-        <v>1.01491008867131</v>
+        <v>1.050282851910468</v>
       </c>
       <c r="E17">
-        <v>0.9989690619030022</v>
+        <v>1.044457535885567</v>
       </c>
       <c r="F17">
-        <v>0.9975689700625692</v>
+        <v>1.054618534580412</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043240117311942</v>
+        <v>1.04793844350444</v>
       </c>
       <c r="J17">
-        <v>1.022019565798966</v>
+        <v>1.053360980209706</v>
       </c>
       <c r="K17">
-        <v>1.028661644794295</v>
+        <v>1.053599660387693</v>
       </c>
       <c r="L17">
-        <v>1.012995191376554</v>
+        <v>1.0477941640935</v>
       </c>
       <c r="M17">
-        <v>1.01161975872757</v>
+        <v>1.057920747676792</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9963055973953566</v>
+        <v>1.047574803584365</v>
       </c>
       <c r="D18">
-        <v>1.016482892986734</v>
+        <v>1.050541202111873</v>
       </c>
       <c r="E18">
-        <v>1.000676501043382</v>
+        <v>1.044740573799725</v>
       </c>
       <c r="F18">
-        <v>0.9996694361862635</v>
+        <v>1.054982301712597</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04417210030735</v>
+        <v>1.048066674792103</v>
       </c>
       <c r="J18">
-        <v>1.023508905036941</v>
+        <v>1.053601839255905</v>
       </c>
       <c r="K18">
-        <v>1.030023048974474</v>
+        <v>1.053815890265079</v>
       </c>
       <c r="L18">
-        <v>1.014483567406636</v>
+        <v>1.048034726175005</v>
       </c>
       <c r="M18">
-        <v>1.013493878032743</v>
+        <v>1.058242246330084</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9969704708509375</v>
+        <v>1.047684139142251</v>
       </c>
       <c r="D19">
-        <v>1.017015605147348</v>
+        <v>1.050629253922891</v>
       </c>
       <c r="E19">
-        <v>1.001254731693299</v>
+        <v>1.044837031556055</v>
       </c>
       <c r="F19">
-        <v>1.000380858778954</v>
+        <v>1.055106301220023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044487456049394</v>
+        <v>1.048110349153241</v>
       </c>
       <c r="J19">
-        <v>1.024013121009178</v>
+        <v>1.053683912455193</v>
       </c>
       <c r="K19">
-        <v>1.030483947466777</v>
+        <v>1.053889568651645</v>
       </c>
       <c r="L19">
-        <v>1.014987414577626</v>
+        <v>1.048116689905065</v>
       </c>
       <c r="M19">
-        <v>1.014128513191055</v>
+        <v>1.058351824083922</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9939788608753579</v>
+        <v>1.047194984846378</v>
       </c>
       <c r="D20">
-        <v>1.014619064460918</v>
+        <v>1.050235311806031</v>
       </c>
       <c r="E20">
-        <v>0.9986530857193135</v>
+        <v>1.044405448990246</v>
       </c>
       <c r="F20">
-        <v>0.9971803034381231</v>
+        <v>1.054551605337648</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043067519803627</v>
+        <v>1.047914832942194</v>
       </c>
       <c r="J20">
-        <v>1.021743876843048</v>
+        <v>1.053316650547439</v>
       </c>
       <c r="K20">
-        <v>1.028409635426422</v>
+        <v>1.053559862552458</v>
       </c>
       <c r="L20">
-        <v>1.012719660409991</v>
+        <v>1.047749885155168</v>
       </c>
       <c r="M20">
-        <v>1.011272915678991</v>
+        <v>1.057861588997981</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.983915890660687</v>
+        <v>1.045601496590288</v>
       </c>
       <c r="D21">
-        <v>1.006565753036439</v>
+        <v>1.048951839777127</v>
       </c>
       <c r="E21">
-        <v>0.9899044458129864</v>
+        <v>1.042998771147158</v>
       </c>
       <c r="F21">
-        <v>0.9864233747792401</v>
+        <v>1.052745715115702</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038273788671614</v>
+        <v>1.047275762572355</v>
       </c>
       <c r="J21">
-        <v>1.014101821212765</v>
+        <v>1.052118905713414</v>
       </c>
       <c r="K21">
-        <v>1.021423793806853</v>
+        <v>1.05248443390716</v>
       </c>
       <c r="L21">
-        <v>1.005079639441958</v>
+        <v>1.04655305588083</v>
       </c>
       <c r="M21">
-        <v>1.001666607837171</v>
+        <v>1.056264627172257</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773060454798478</v>
+        <v>1.04459710407348</v>
       </c>
       <c r="D22">
-        <v>1.001283080921469</v>
+        <v>1.048142742522503</v>
       </c>
       <c r="E22">
-        <v>0.9841606857147689</v>
+        <v>1.042111563055202</v>
       </c>
       <c r="F22">
-        <v>0.9793643699471011</v>
+        <v>1.051608291689326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035111873407136</v>
+        <v>1.046871302666644</v>
       </c>
       <c r="J22">
-        <v>1.009075655806947</v>
+        <v>1.051362929342583</v>
       </c>
       <c r="K22">
-        <v>1.016829162508773</v>
+        <v>1.051805534915627</v>
       </c>
       <c r="L22">
-        <v>1.00005259111584</v>
+        <v>1.045797215718906</v>
       </c>
       <c r="M22">
-        <v>0.9953560143992577</v>
+        <v>1.055258079800747</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9808385736366727</v>
+        <v>1.045129792081082</v>
       </c>
       <c r="D23">
-        <v>1.004105591916499</v>
+        <v>1.048571864304036</v>
       </c>
       <c r="E23">
-        <v>0.9872300372684615</v>
+        <v>1.042582154657737</v>
       </c>
       <c r="F23">
-        <v>0.983136336077732</v>
+        <v>1.052211453548915</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036802915879542</v>
+        <v>1.04708596730733</v>
       </c>
       <c r="J23">
-        <v>1.011762389365041</v>
+        <v>1.051763964788072</v>
       </c>
       <c r="K23">
-        <v>1.019285215679425</v>
+        <v>1.052165693539451</v>
       </c>
       <c r="L23">
-        <v>1.002739997895362</v>
+        <v>1.046198220740171</v>
       </c>
       <c r="M23">
-        <v>0.9987286818673816</v>
+        <v>1.055791907487091</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9941431317359655</v>
+        <v>1.047221658179142</v>
       </c>
       <c r="D24">
-        <v>1.014750632386269</v>
+        <v>1.050256793846133</v>
       </c>
       <c r="E24">
-        <v>0.99879593561289</v>
+        <v>1.044428985747513</v>
       </c>
       <c r="F24">
-        <v>0.9973560144104029</v>
+        <v>1.054581848437734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043145554368006</v>
+        <v>1.047925502437677</v>
       </c>
       <c r="J24">
-        <v>1.021868516101395</v>
+        <v>1.053336682192773</v>
       </c>
       <c r="K24">
-        <v>1.028523569200125</v>
+        <v>1.053577846403299</v>
       </c>
       <c r="L24">
-        <v>1.01284422901677</v>
+        <v>1.047769894030335</v>
       </c>
       <c r="M24">
-        <v>1.011429721040277</v>
+        <v>1.057888321083478</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.0085025749078</v>
+        <v>1.049638577237201</v>
       </c>
       <c r="D25">
-        <v>1.026263203847229</v>
+        <v>1.052203032421537</v>
       </c>
       <c r="E25">
-        <v>1.011285707683963</v>
+        <v>1.046560338398062</v>
       </c>
       <c r="F25">
-        <v>1.01273136525469</v>
+        <v>1.057324268620001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049935647129661</v>
+        <v>1.048888343203396</v>
       </c>
       <c r="J25">
-        <v>1.032747142949372</v>
+        <v>1.055149330934433</v>
       </c>
       <c r="K25">
-        <v>1.038467052424471</v>
+        <v>1.055204888483483</v>
       </c>
       <c r="L25">
-        <v>1.02371131781417</v>
+        <v>1.049579430592633</v>
       </c>
       <c r="M25">
-        <v>1.025135206469377</v>
+        <v>1.060310654973628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051558125831511</v>
+        <v>1.019223484061122</v>
       </c>
       <c r="D2">
-        <v>1.053748318504431</v>
+        <v>1.034872359980015</v>
       </c>
       <c r="E2">
-        <v>1.048251097400144</v>
+        <v>1.020612173658884</v>
       </c>
       <c r="F2">
-        <v>1.059505324490594</v>
+        <v>1.024234279081059</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049647275507857</v>
+        <v>1.054959091970616</v>
       </c>
       <c r="J2">
-        <v>1.056585365705097</v>
+        <v>1.040844042213254</v>
       </c>
       <c r="K2">
-        <v>1.056493430923029</v>
+        <v>1.045866339627646</v>
       </c>
       <c r="L2">
-        <v>1.051011464325533</v>
+        <v>1.031791626912462</v>
       </c>
       <c r="M2">
-        <v>1.062234645293643</v>
+        <v>1.035366008601607</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05294731746347</v>
+        <v>1.026639756584843</v>
       </c>
       <c r="D3">
-        <v>1.054866382000574</v>
+        <v>1.040833675469863</v>
       </c>
       <c r="E3">
-        <v>1.049473553825967</v>
+        <v>1.027063048231424</v>
       </c>
       <c r="F3">
-        <v>1.0610855122101</v>
+        <v>1.032205493681676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050193171645195</v>
+        <v>1.058406623182973</v>
       </c>
       <c r="J3">
-        <v>1.057622546760413</v>
+        <v>1.046429630711401</v>
       </c>
       <c r="K3">
-        <v>1.057423820220612</v>
+        <v>1.050969438408864</v>
       </c>
       <c r="L3">
-        <v>1.052044866240877</v>
+        <v>1.037360977476374</v>
       </c>
       <c r="M3">
-        <v>1.063627139126467</v>
+        <v>1.042442237238876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053844158736299</v>
+        <v>1.031284225787134</v>
       </c>
       <c r="D4">
-        <v>1.055588056272542</v>
+        <v>1.04456908680106</v>
       </c>
       <c r="E4">
-        <v>1.050262215559527</v>
+        <v>1.031102107496485</v>
       </c>
       <c r="F4">
-        <v>1.062106466013311</v>
+        <v>1.037204079894161</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05054404292949</v>
+        <v>1.060552684463127</v>
       </c>
       <c r="J4">
-        <v>1.058291167769236</v>
+        <v>1.049920174045482</v>
       </c>
       <c r="K4">
-        <v>1.058023473583255</v>
+        <v>1.054157789630628</v>
       </c>
       <c r="L4">
-        <v>1.052710639686535</v>
+        <v>1.040839107531247</v>
       </c>
       <c r="M4">
-        <v>1.064526154751455</v>
+        <v>1.046873299164472</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054220705838856</v>
+        <v>1.03320194047634</v>
       </c>
       <c r="D5">
-        <v>1.055891025821862</v>
+        <v>1.046111875076086</v>
       </c>
       <c r="E5">
-        <v>1.050593213435466</v>
+        <v>1.032769585503491</v>
       </c>
       <c r="F5">
-        <v>1.062535316866567</v>
+        <v>1.039269606661386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050690987816083</v>
+        <v>1.061435648292891</v>
       </c>
       <c r="J5">
-        <v>1.058571662584958</v>
+        <v>1.051359600676435</v>
       </c>
       <c r="K5">
-        <v>1.058275005659778</v>
+        <v>1.05547242277727</v>
       </c>
       <c r="L5">
-        <v>1.05298984142194</v>
+        <v>1.042272864346256</v>
       </c>
       <c r="M5">
-        <v>1.064903625239759</v>
+        <v>1.04870278981659</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054283901543089</v>
+        <v>1.033521949848204</v>
       </c>
       <c r="D6">
-        <v>1.055941871140527</v>
+        <v>1.046369343227055</v>
       </c>
       <c r="E6">
-        <v>1.050648757059594</v>
+        <v>1.033047820729896</v>
       </c>
       <c r="F6">
-        <v>1.062607302070337</v>
+        <v>1.039614375814346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050715627692171</v>
+        <v>1.061582802143929</v>
       </c>
       <c r="J6">
-        <v>1.058618724275321</v>
+        <v>1.0515996893319</v>
       </c>
       <c r="K6">
-        <v>1.058317206189722</v>
+        <v>1.055691685812064</v>
       </c>
       <c r="L6">
-        <v>1.053036680380433</v>
+        <v>1.042511974700936</v>
       </c>
       <c r="M6">
-        <v>1.064966976537437</v>
+        <v>1.049008070929824</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053849192072976</v>
+        <v>1.031309984524524</v>
       </c>
       <c r="D7">
-        <v>1.055592106218936</v>
+        <v>1.044589807943523</v>
       </c>
       <c r="E7">
-        <v>1.050266640543588</v>
+        <v>1.031124506169793</v>
       </c>
       <c r="F7">
-        <v>1.06211219773551</v>
+        <v>1.037231817700534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050546008615752</v>
+        <v>1.060564556960185</v>
       </c>
       <c r="J7">
-        <v>1.058294918079007</v>
+        <v>1.049939515713375</v>
       </c>
       <c r="K7">
-        <v>1.058026836769608</v>
+        <v>1.054175455155006</v>
       </c>
       <c r="L7">
-        <v>1.052714373094769</v>
+        <v>1.040858375205155</v>
       </c>
       <c r="M7">
-        <v>1.064531200389616</v>
+        <v>1.046897873301511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052028040645142</v>
+        <v>1.021763154472889</v>
       </c>
       <c r="D8">
-        <v>1.054126546829946</v>
+        <v>1.03691328761962</v>
       </c>
       <c r="E8">
-        <v>1.04866472288984</v>
+        <v>1.022821381818998</v>
       </c>
       <c r="F8">
-        <v>1.060039679217146</v>
+        <v>1.026962606033724</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049832254490903</v>
+        <v>1.056142401228591</v>
       </c>
       <c r="J8">
-        <v>1.056936408167732</v>
+        <v>1.042758352867314</v>
       </c>
       <c r="K8">
-        <v>1.056808354454157</v>
+        <v>1.047615423967596</v>
       </c>
       <c r="L8">
-        <v>1.051361313085015</v>
+        <v>1.033700847615673</v>
       </c>
       <c r="M8">
-        <v>1.062705668486253</v>
+        <v>1.037789329262282</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048802818774899</v>
+        <v>1.003651106728482</v>
       </c>
       <c r="D9">
-        <v>1.051530099403937</v>
+        <v>1.022371060615648</v>
       </c>
       <c r="E9">
-        <v>1.045823635147012</v>
+        <v>1.007065439637894</v>
       </c>
       <c r="F9">
-        <v>1.056375490799912</v>
+        <v>1.007532960994946</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048556291757873</v>
+        <v>1.04764880935502</v>
       </c>
       <c r="J9">
-        <v>1.054523083058827</v>
+        <v>1.029075590537892</v>
       </c>
       <c r="K9">
-        <v>1.054642834580094</v>
+        <v>1.035111318210479</v>
       </c>
       <c r="L9">
-        <v>1.048954496490032</v>
+        <v>1.020044915743473</v>
       </c>
       <c r="M9">
-        <v>1.059473002969653</v>
+        <v>1.02050499211408</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046641335068541</v>
+        <v>0.9905388082309431</v>
       </c>
       <c r="D10">
-        <v>1.049789401259321</v>
+        <v>1.011864601785729</v>
       </c>
       <c r="E10">
-        <v>1.043916832333014</v>
+        <v>0.9956618490211566</v>
       </c>
       <c r="F10">
-        <v>1.053923966951429</v>
+        <v>0.9935015345945802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047693160610111</v>
+        <v>1.041431691658489</v>
       </c>
       <c r="J10">
-        <v>1.052900729974029</v>
+        <v>1.019132898413721</v>
       </c>
       <c r="K10">
-        <v>1.053186444732701</v>
+        <v>1.026022891303302</v>
       </c>
       <c r="L10">
-        <v>1.047334381436358</v>
+        <v>1.010109874383978</v>
       </c>
       <c r="M10">
-        <v>1.057306724343322</v>
+        <v>1.007989120558879</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045702588659876</v>
+        <v>0.9845693474678823</v>
       </c>
       <c r="D11">
-        <v>1.049033270768513</v>
+        <v>1.007088319586972</v>
       </c>
       <c r="E11">
-        <v>1.04308804476538</v>
+        <v>0.9904724116399229</v>
       </c>
       <c r="F11">
-        <v>1.052860232595178</v>
+        <v>0.9871215075712834</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047316401768258</v>
+        <v>1.038585841472203</v>
       </c>
       <c r="J11">
-        <v>1.052194951347475</v>
+        <v>1.014598453678226</v>
       </c>
       <c r="K11">
-        <v>1.052552720887711</v>
+        <v>1.0218777872662</v>
       </c>
       <c r="L11">
-        <v>1.046629069129724</v>
+        <v>1.005576269154319</v>
       </c>
       <c r="M11">
-        <v>1.056365937556086</v>
+        <v>1.002290449870113</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045353464631602</v>
+        <v>0.9823036170837202</v>
       </c>
       <c r="D12">
-        <v>1.048752043138157</v>
+        <v>1.005276664406927</v>
       </c>
       <c r="E12">
-        <v>1.042779717460563</v>
+        <v>0.9885032002717108</v>
       </c>
       <c r="F12">
-        <v>1.052464771539168</v>
+        <v>0.9847010873156994</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047175998949094</v>
+        <v>1.037503435717039</v>
       </c>
       <c r="J12">
-        <v>1.051932292012034</v>
+        <v>1.012876272394835</v>
       </c>
       <c r="K12">
-        <v>1.052316855613463</v>
+        <v>1.020303465304228</v>
       </c>
       <c r="L12">
-        <v>1.046366507086501</v>
+        <v>1.003854025918966</v>
       </c>
       <c r="M12">
-        <v>1.05601606070102</v>
+        <v>1.000127379400178</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045428372617767</v>
+        <v>0.9827918953351779</v>
       </c>
       <c r="D13">
-        <v>1.048812384144973</v>
+        <v>1.005667029692197</v>
       </c>
       <c r="E13">
-        <v>1.042845876514342</v>
+        <v>0.9889275538165753</v>
       </c>
       <c r="F13">
-        <v>1.052549614965605</v>
+        <v>0.9852226513645019</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047206136619744</v>
+        <v>1.037736800954119</v>
       </c>
       <c r="J13">
-        <v>1.051988656157945</v>
+        <v>1.01324746156978</v>
       </c>
       <c r="K13">
-        <v>1.052367470983133</v>
+        <v>1.020642785826785</v>
       </c>
       <c r="L13">
-        <v>1.04642285380463</v>
+        <v>1.004225245312612</v>
       </c>
       <c r="M13">
-        <v>1.056091129947336</v>
+        <v>1.000593539389194</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045673738824015</v>
+        <v>0.9843830778435352</v>
       </c>
       <c r="D14">
-        <v>1.049010031934424</v>
+        <v>1.006939354911593</v>
       </c>
       <c r="E14">
-        <v>1.043062568149238</v>
+        <v>0.9903105092062144</v>
       </c>
       <c r="F14">
-        <v>1.052827550716797</v>
+        <v>0.9869224977497337</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047304805392709</v>
+        <v>1.038496900227043</v>
       </c>
       <c r="J14">
-        <v>1.052173250124121</v>
+        <v>1.0144568922852</v>
       </c>
       <c r="K14">
-        <v>1.052533233858449</v>
+        <v>1.02174837983438</v>
       </c>
       <c r="L14">
-        <v>1.046607377499546</v>
+        <v>1.005434710271502</v>
       </c>
       <c r="M14">
-        <v>1.056337025389985</v>
+        <v>1.002112622573729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045824859530916</v>
+        <v>0.9853568951997327</v>
       </c>
       <c r="D15">
-        <v>1.049131760405309</v>
+        <v>1.007718191817658</v>
       </c>
       <c r="E15">
-        <v>1.043196015327771</v>
+        <v>0.9911569544015386</v>
       </c>
       <c r="F15">
-        <v>1.052998750358128</v>
+        <v>0.9879629669380589</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047365537681034</v>
+        <v>1.0389617939227</v>
       </c>
       <c r="J15">
-        <v>1.05228691784696</v>
+        <v>1.015196930251657</v>
       </c>
       <c r="K15">
-        <v>1.052635303088835</v>
+        <v>1.022424880420205</v>
       </c>
       <c r="L15">
-        <v>1.046720991854296</v>
+        <v>1.006174719771949</v>
       </c>
       <c r="M15">
-        <v>1.056488472837698</v>
+        <v>1.003042298543845</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046703576553772</v>
+        <v>0.990928459345587</v>
       </c>
       <c r="D16">
-        <v>1.049839532056078</v>
+        <v>1.012176524534907</v>
       </c>
       <c r="E16">
-        <v>1.043971769574214</v>
+        <v>0.9960006399020105</v>
       </c>
       <c r="F16">
-        <v>1.053994516035383</v>
+        <v>0.9939181443173883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047718100899351</v>
+        <v>1.041617138403669</v>
       </c>
       <c r="J16">
-        <v>1.052947500234685</v>
+        <v>1.019428722212507</v>
       </c>
       <c r="K16">
-        <v>1.053228437070134</v>
+        <v>1.026293311679226</v>
       </c>
       <c r="L16">
-        <v>1.047381110123395</v>
+        <v>1.01040559013125</v>
       </c>
       <c r="M16">
-        <v>1.05736910196938</v>
+        <v>1.008361080207274</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047254013476258</v>
+        <v>0.9943422176037439</v>
       </c>
       <c r="D17">
-        <v>1.050282851910468</v>
+        <v>1.014910088671311</v>
       </c>
       <c r="E17">
-        <v>1.044457535885567</v>
+        <v>0.9989690619030029</v>
       </c>
       <c r="F17">
-        <v>1.054618534580412</v>
+        <v>0.9975689700625701</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04793844350444</v>
+        <v>1.043240117311943</v>
       </c>
       <c r="J17">
-        <v>1.053360980209706</v>
+        <v>1.022019565798967</v>
       </c>
       <c r="K17">
-        <v>1.053599660387693</v>
+        <v>1.028661644794296</v>
       </c>
       <c r="L17">
-        <v>1.0477941640935</v>
+        <v>1.012995191376554</v>
       </c>
       <c r="M17">
-        <v>1.057920747676792</v>
+        <v>1.011619758727571</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047574803584365</v>
+        <v>0.9963055973953577</v>
       </c>
       <c r="D18">
-        <v>1.050541202111873</v>
+        <v>1.016482892986735</v>
       </c>
       <c r="E18">
-        <v>1.044740573799725</v>
+        <v>1.000676501043383</v>
       </c>
       <c r="F18">
-        <v>1.054982301712597</v>
+        <v>0.9996694361862646</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048066674792103</v>
+        <v>1.044172100307351</v>
       </c>
       <c r="J18">
-        <v>1.053601839255905</v>
+        <v>1.023508905036942</v>
       </c>
       <c r="K18">
-        <v>1.053815890265079</v>
+        <v>1.030023048974475</v>
       </c>
       <c r="L18">
-        <v>1.048034726175005</v>
+        <v>1.014483567406637</v>
       </c>
       <c r="M18">
-        <v>1.058242246330084</v>
+        <v>1.013493878032744</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047684139142251</v>
+        <v>0.9969704708509396</v>
       </c>
       <c r="D19">
-        <v>1.050629253922891</v>
+        <v>1.01701560514735</v>
       </c>
       <c r="E19">
-        <v>1.044837031556055</v>
+        <v>1.001254731693301</v>
       </c>
       <c r="F19">
-        <v>1.055106301220023</v>
+        <v>1.000380858778957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048110349153241</v>
+        <v>1.044487456049395</v>
       </c>
       <c r="J19">
-        <v>1.053683912455193</v>
+        <v>1.02401312100918</v>
       </c>
       <c r="K19">
-        <v>1.053889568651645</v>
+        <v>1.030483947466779</v>
       </c>
       <c r="L19">
-        <v>1.048116689905065</v>
+        <v>1.014987414577628</v>
       </c>
       <c r="M19">
-        <v>1.058351824083922</v>
+        <v>1.014128513191057</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047194984846378</v>
+        <v>0.9939788608753588</v>
       </c>
       <c r="D20">
-        <v>1.050235311806031</v>
+        <v>1.014619064460919</v>
       </c>
       <c r="E20">
-        <v>1.044405448990246</v>
+        <v>0.9986530857193143</v>
       </c>
       <c r="F20">
-        <v>1.054551605337648</v>
+        <v>0.997180303438124</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047914832942194</v>
+        <v>1.043067519803628</v>
       </c>
       <c r="J20">
-        <v>1.053316650547439</v>
+        <v>1.021743876843049</v>
       </c>
       <c r="K20">
-        <v>1.053559862552458</v>
+        <v>1.028409635426423</v>
       </c>
       <c r="L20">
-        <v>1.047749885155168</v>
+        <v>1.012719660409992</v>
       </c>
       <c r="M20">
-        <v>1.057861588997981</v>
+        <v>1.011272915678993</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045601496590288</v>
+        <v>0.9839158906606863</v>
       </c>
       <c r="D21">
-        <v>1.048951839777127</v>
+        <v>1.006565753036438</v>
       </c>
       <c r="E21">
-        <v>1.042998771147158</v>
+        <v>0.9899044458129858</v>
       </c>
       <c r="F21">
-        <v>1.052745715115702</v>
+        <v>0.9864233747792396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047275762572355</v>
+        <v>1.038273788671614</v>
       </c>
       <c r="J21">
-        <v>1.052118905713414</v>
+        <v>1.014101821212764</v>
       </c>
       <c r="K21">
-        <v>1.05248443390716</v>
+        <v>1.021423793806853</v>
       </c>
       <c r="L21">
-        <v>1.04655305588083</v>
+        <v>1.005079639441957</v>
       </c>
       <c r="M21">
-        <v>1.056264627172257</v>
+        <v>1.00166660783717</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04459710407348</v>
+        <v>0.9773060454798483</v>
       </c>
       <c r="D22">
-        <v>1.048142742522503</v>
+        <v>1.001283080921469</v>
       </c>
       <c r="E22">
-        <v>1.042111563055202</v>
+        <v>0.9841606857147698</v>
       </c>
       <c r="F22">
-        <v>1.051608291689326</v>
+        <v>0.9793643699471017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046871302666644</v>
+        <v>1.035111873407137</v>
       </c>
       <c r="J22">
-        <v>1.051362929342583</v>
+        <v>1.009075655806948</v>
       </c>
       <c r="K22">
-        <v>1.051805534915627</v>
+        <v>1.016829162508774</v>
       </c>
       <c r="L22">
-        <v>1.045797215718906</v>
+        <v>1.000052591115841</v>
       </c>
       <c r="M22">
-        <v>1.055258079800747</v>
+        <v>0.9953560143992581</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045129792081082</v>
+        <v>0.9808385736366705</v>
       </c>
       <c r="D23">
-        <v>1.048571864304036</v>
+        <v>1.004105591916497</v>
       </c>
       <c r="E23">
-        <v>1.042582154657737</v>
+        <v>0.9872300372684596</v>
       </c>
       <c r="F23">
-        <v>1.052211453548915</v>
+        <v>0.9831363360777301</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04708596730733</v>
+        <v>1.036802915879541</v>
       </c>
       <c r="J23">
-        <v>1.051763964788072</v>
+        <v>1.011762389365039</v>
       </c>
       <c r="K23">
-        <v>1.052165693539451</v>
+        <v>1.019285215679423</v>
       </c>
       <c r="L23">
-        <v>1.046198220740171</v>
+        <v>1.00273999789536</v>
       </c>
       <c r="M23">
-        <v>1.055791907487091</v>
+        <v>0.9987286818673797</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047221658179142</v>
+        <v>0.9941431317359675</v>
       </c>
       <c r="D24">
-        <v>1.050256793846133</v>
+        <v>1.01475063238627</v>
       </c>
       <c r="E24">
-        <v>1.044428985747513</v>
+        <v>0.9987959356128919</v>
       </c>
       <c r="F24">
-        <v>1.054581848437734</v>
+        <v>0.9973560144104054</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047925502437677</v>
+        <v>1.043145554368007</v>
       </c>
       <c r="J24">
-        <v>1.053336682192773</v>
+        <v>1.021868516101397</v>
       </c>
       <c r="K24">
-        <v>1.053577846403299</v>
+        <v>1.028523569200126</v>
       </c>
       <c r="L24">
-        <v>1.047769894030335</v>
+        <v>1.012844229016772</v>
       </c>
       <c r="M24">
-        <v>1.057888321083478</v>
+        <v>1.01142972104028</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049638577237201</v>
+        <v>1.0085025749078</v>
       </c>
       <c r="D25">
-        <v>1.052203032421537</v>
+        <v>1.026263203847229</v>
       </c>
       <c r="E25">
-        <v>1.046560338398062</v>
+        <v>1.011285707683965</v>
       </c>
       <c r="F25">
-        <v>1.057324268620001</v>
+        <v>1.01273136525469</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048888343203396</v>
+        <v>1.049935647129661</v>
       </c>
       <c r="J25">
-        <v>1.055149330934433</v>
+        <v>1.032747142949372</v>
       </c>
       <c r="K25">
-        <v>1.055204888483483</v>
+        <v>1.038467052424472</v>
       </c>
       <c r="L25">
-        <v>1.049579430592633</v>
+        <v>1.023711317814171</v>
       </c>
       <c r="M25">
-        <v>1.060310654973628</v>
+        <v>1.025135206469377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019223484061122</v>
+        <v>1.014715325798429</v>
       </c>
       <c r="D2">
-        <v>1.034872359980015</v>
+        <v>1.034367109450318</v>
       </c>
       <c r="E2">
-        <v>1.020612173658884</v>
+        <v>1.019137125982205</v>
       </c>
       <c r="F2">
-        <v>1.024234279081059</v>
+        <v>1.039858181060675</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054959091970616</v>
+        <v>1.050253561640153</v>
       </c>
       <c r="J2">
-        <v>1.040844042213254</v>
+        <v>1.03646463884047</v>
       </c>
       <c r="K2">
-        <v>1.045866339627646</v>
+        <v>1.045367551354501</v>
       </c>
       <c r="L2">
-        <v>1.031791626912462</v>
+        <v>1.030336135992934</v>
       </c>
       <c r="M2">
-        <v>1.035366008601607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.050788811319798</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048768281239644</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043149065381228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026639756584843</v>
+        <v>1.018107363252059</v>
       </c>
       <c r="D3">
-        <v>1.040833675469863</v>
+        <v>1.036599558219765</v>
       </c>
       <c r="E3">
-        <v>1.027063048231424</v>
+        <v>1.02178309463489</v>
       </c>
       <c r="F3">
-        <v>1.032205493681676</v>
+        <v>1.042213332427803</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058406623182973</v>
+        <v>1.051015225171622</v>
       </c>
       <c r="J3">
-        <v>1.046429630711401</v>
+        <v>1.03811628622183</v>
       </c>
       <c r="K3">
-        <v>1.050969438408864</v>
+        <v>1.046784615613173</v>
       </c>
       <c r="L3">
-        <v>1.037360977476374</v>
+        <v>1.03214464147572</v>
       </c>
       <c r="M3">
-        <v>1.042442237238876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.052333140006211</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049990499034878</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04414839121692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031284225787134</v>
+        <v>1.020267904890549</v>
       </c>
       <c r="D4">
-        <v>1.04456908680106</v>
+        <v>1.038025937529571</v>
       </c>
       <c r="E4">
-        <v>1.031102107496485</v>
+        <v>1.02347400719975</v>
       </c>
       <c r="F4">
-        <v>1.037204079894161</v>
+        <v>1.043719748168298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060552684463127</v>
+        <v>1.051493660669898</v>
       </c>
       <c r="J4">
-        <v>1.049920174045482</v>
+        <v>1.039166990672482</v>
       </c>
       <c r="K4">
-        <v>1.054157789630628</v>
+        <v>1.047686102426373</v>
       </c>
       <c r="L4">
-        <v>1.040839107531247</v>
+        <v>1.033297141935369</v>
       </c>
       <c r="M4">
-        <v>1.046873299164472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.053317665098485</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050769674143985</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044786701193357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03320194047634</v>
+        <v>1.021171148979421</v>
       </c>
       <c r="D5">
-        <v>1.046111875076086</v>
+        <v>1.038625209082892</v>
       </c>
       <c r="E5">
-        <v>1.032769585503491</v>
+        <v>1.024182591617037</v>
       </c>
       <c r="F5">
-        <v>1.039269606661386</v>
+        <v>1.044351713870136</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061435648292891</v>
+        <v>1.05169347833843</v>
       </c>
       <c r="J5">
-        <v>1.051359600676435</v>
+        <v>1.039607365629397</v>
       </c>
       <c r="K5">
-        <v>1.05547242277727</v>
+        <v>1.04806529336822</v>
       </c>
       <c r="L5">
-        <v>1.042272864346256</v>
+        <v>1.033780148819671</v>
       </c>
       <c r="M5">
-        <v>1.04870278981659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.053730835678638</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05109666631134</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045061939353729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033521949848204</v>
+        <v>1.021325941401404</v>
       </c>
       <c r="D6">
-        <v>1.046369343227055</v>
+        <v>1.038730299199454</v>
       </c>
       <c r="E6">
-        <v>1.033047820729896</v>
+        <v>1.024304540176857</v>
       </c>
       <c r="F6">
-        <v>1.039614375814346</v>
+        <v>1.044460955812133</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061582802143929</v>
+        <v>1.051729374052525</v>
       </c>
       <c r="J6">
-        <v>1.0515996893319</v>
+        <v>1.039684574284119</v>
       </c>
       <c r="K6">
-        <v>1.055691685812064</v>
+        <v>1.048133416872091</v>
       </c>
       <c r="L6">
-        <v>1.042511974700936</v>
+        <v>1.033864232072525</v>
       </c>
       <c r="M6">
-        <v>1.049008070929824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.05380334227082</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051154049587834</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045118792871299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031309984524524</v>
+        <v>1.020289686808469</v>
       </c>
       <c r="D7">
-        <v>1.044589807943523</v>
+        <v>1.03804662289165</v>
       </c>
       <c r="E7">
-        <v>1.031124506169793</v>
+        <v>1.023492276707839</v>
       </c>
       <c r="F7">
-        <v>1.037231817700534</v>
+        <v>1.043737262771935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060564556960185</v>
+        <v>1.051503183698726</v>
       </c>
       <c r="J7">
-        <v>1.049939515713375</v>
+        <v>1.039182338497458</v>
       </c>
       <c r="K7">
-        <v>1.054175455155006</v>
+        <v>1.047703705317293</v>
       </c>
       <c r="L7">
-        <v>1.040858375205155</v>
+        <v>1.03331229411242</v>
       </c>
       <c r="M7">
-        <v>1.046897873301511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.053332155382715</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050781142071937</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044819123959655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021763154472889</v>
+        <v>1.01588106121343</v>
       </c>
       <c r="D8">
-        <v>1.03691328761962</v>
+        <v>1.035141120162332</v>
       </c>
       <c r="E8">
-        <v>1.022821381818998</v>
+        <v>1.020046836614441</v>
       </c>
       <c r="F8">
-        <v>1.026962606033724</v>
+        <v>1.04066908259707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056142401228591</v>
+        <v>1.050522519929814</v>
       </c>
       <c r="J8">
-        <v>1.042758352867314</v>
+        <v>1.037038407390178</v>
       </c>
       <c r="K8">
-        <v>1.047615423967596</v>
+        <v>1.045865226445972</v>
       </c>
       <c r="L8">
-        <v>1.033700847615673</v>
+        <v>1.030961938601233</v>
       </c>
       <c r="M8">
-        <v>1.037789329262282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.051324965200465</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049192606171853</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043523719291363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003651106728482</v>
+        <v>1.007823738266813</v>
       </c>
       <c r="D9">
-        <v>1.022371060615648</v>
+        <v>1.029857477910832</v>
       </c>
       <c r="E9">
-        <v>1.007065439637894</v>
+        <v>1.013793162256264</v>
       </c>
       <c r="F9">
-        <v>1.007532960994946</v>
+        <v>1.035109380288803</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04764880935502</v>
+        <v>1.048671029629929</v>
       </c>
       <c r="J9">
-        <v>1.029075590537892</v>
+        <v>1.033103213288264</v>
       </c>
       <c r="K9">
-        <v>1.035111318210479</v>
+        <v>1.042484024348733</v>
       </c>
       <c r="L9">
-        <v>1.020044915743473</v>
+        <v>1.02666634977957</v>
       </c>
       <c r="M9">
-        <v>1.02050499211408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.047657403727309</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046290005943634</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041129860645545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9905388082309431</v>
+        <v>1.002303071917318</v>
       </c>
       <c r="D10">
-        <v>1.011864601785729</v>
+        <v>1.026287400432645</v>
       </c>
       <c r="E10">
-        <v>0.9956618490211566</v>
+        <v>1.009547252106748</v>
       </c>
       <c r="F10">
-        <v>0.9935015345945802</v>
+        <v>1.031410001318704</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041431691658489</v>
+        <v>1.047392234358783</v>
       </c>
       <c r="J10">
-        <v>1.019132898413721</v>
+        <v>1.030425611275807</v>
       </c>
       <c r="K10">
-        <v>1.026022891303302</v>
+        <v>1.040197712354869</v>
       </c>
       <c r="L10">
-        <v>1.010109874383978</v>
+        <v>1.023746241333016</v>
       </c>
       <c r="M10">
-        <v>1.007989120558879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.045234388219345</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044423434340819</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03953003079304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9845693474678823</v>
+        <v>1.000245710526952</v>
       </c>
       <c r="D11">
-        <v>1.007088319586972</v>
+        <v>1.025142027010259</v>
       </c>
       <c r="E11">
-        <v>0.9904724116399229</v>
+        <v>1.008025262554797</v>
       </c>
       <c r="F11">
-        <v>0.9871215075712834</v>
+        <v>1.030619075280941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038585841472203</v>
+        <v>1.047084121056996</v>
       </c>
       <c r="J11">
-        <v>1.014598453678226</v>
+        <v>1.02960827122526</v>
       </c>
       <c r="K11">
-        <v>1.0218777872662</v>
+        <v>1.039604882327622</v>
       </c>
       <c r="L11">
-        <v>1.005576269154319</v>
+        <v>1.022797404681366</v>
       </c>
       <c r="M11">
-        <v>1.002290449870113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.044985773897525</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044659803381448</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03914354117032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9823036170837202</v>
+        <v>0.9996069281077629</v>
       </c>
       <c r="D12">
-        <v>1.005276664406927</v>
+        <v>1.024856952230087</v>
       </c>
       <c r="E12">
-        <v>0.9885032002717108</v>
+        <v>1.007576703054067</v>
       </c>
       <c r="F12">
-        <v>0.9847010873156994</v>
+        <v>1.030617728074036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037503435717039</v>
+        <v>1.047058582105911</v>
       </c>
       <c r="J12">
-        <v>1.012876272394835</v>
+        <v>1.029427932763357</v>
       </c>
       <c r="K12">
-        <v>1.020303465304228</v>
+        <v>1.039522939269476</v>
       </c>
       <c r="L12">
-        <v>1.003854025918966</v>
+        <v>1.022560170875576</v>
       </c>
       <c r="M12">
-        <v>1.000127379400178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.0451809448624</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045138431273291</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039085605384034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9827918953351779</v>
+        <v>1.000030293856233</v>
       </c>
       <c r="D13">
-        <v>1.005667029692197</v>
+        <v>1.025231856631559</v>
       </c>
       <c r="E13">
-        <v>0.9889275538165753</v>
+        <v>1.00793392701124</v>
       </c>
       <c r="F13">
-        <v>0.9852226513645019</v>
+        <v>1.031246782378092</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037736800954119</v>
+        <v>1.047262200510916</v>
       </c>
       <c r="J13">
-        <v>1.01324746156978</v>
+        <v>1.029740755299333</v>
       </c>
       <c r="K13">
-        <v>1.020642785826785</v>
+        <v>1.039848643020998</v>
       </c>
       <c r="L13">
-        <v>1.004225245312612</v>
+        <v>1.022867159000357</v>
       </c>
       <c r="M13">
-        <v>1.000593539389194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.045756757641592</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045868760781422</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03931340763527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9843830778435352</v>
+        <v>1.000808912876801</v>
       </c>
       <c r="D14">
-        <v>1.006939354911593</v>
+        <v>1.025794536027149</v>
       </c>
       <c r="E14">
-        <v>0.9903105092062144</v>
+        <v>1.008549956811701</v>
       </c>
       <c r="F14">
-        <v>0.9869224977497337</v>
+        <v>1.031972864849051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038496900227043</v>
+        <v>1.047508736694825</v>
       </c>
       <c r="J14">
-        <v>1.0144568922852</v>
+        <v>1.030183684825052</v>
       </c>
       <c r="K14">
-        <v>1.02174837983438</v>
+        <v>1.040262219238302</v>
       </c>
       <c r="L14">
-        <v>1.005434710271502</v>
+        <v>1.023329174628291</v>
       </c>
       <c r="M14">
-        <v>1.002112622573729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.046332212127747</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046496071542983</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03960723287241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9853568951997327</v>
+        <v>1.001234616814614</v>
       </c>
       <c r="D15">
-        <v>1.007718191817658</v>
+        <v>1.026083405872744</v>
       </c>
       <c r="E15">
-        <v>0.9911569544015386</v>
+        <v>1.008880313705366</v>
       </c>
       <c r="F15">
-        <v>0.9879629669380589</v>
+        <v>1.032301919491974</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0389617939227</v>
+        <v>1.047623528293309</v>
       </c>
       <c r="J15">
-        <v>1.015196930251657</v>
+        <v>1.030405345736876</v>
       </c>
       <c r="K15">
-        <v>1.022424880420205</v>
+        <v>1.04046034715183</v>
       </c>
       <c r="L15">
-        <v>1.006174719771949</v>
+        <v>1.023565673054581</v>
       </c>
       <c r="M15">
-        <v>1.003042298543845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.046570646623487</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04672188870562</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03975315101874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.990928459345587</v>
+        <v>1.00348871328572</v>
       </c>
       <c r="D16">
-        <v>1.012176524534907</v>
+        <v>1.027527367480901</v>
       </c>
       <c r="E16">
-        <v>0.9960006399020105</v>
+        <v>1.010602430730707</v>
       </c>
       <c r="F16">
-        <v>0.9939181443173883</v>
+        <v>1.033777875561338</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041617138403669</v>
+        <v>1.048141170728528</v>
       </c>
       <c r="J16">
-        <v>1.019428722212507</v>
+        <v>1.031488250681021</v>
       </c>
       <c r="K16">
-        <v>1.026293311679226</v>
+        <v>1.0413815067837</v>
       </c>
       <c r="L16">
-        <v>1.01040559013125</v>
+        <v>1.024746734442589</v>
       </c>
       <c r="M16">
-        <v>1.008361080207274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.047527946652075</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047440009539366</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040407585735287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9943422176037439</v>
+        <v>1.00481255313418</v>
       </c>
       <c r="D17">
-        <v>1.014910088671311</v>
+        <v>1.028342192081986</v>
       </c>
       <c r="E17">
-        <v>0.9989690619030029</v>
+        <v>1.011604233550104</v>
       </c>
       <c r="F17">
-        <v>0.9975689700625701</v>
+        <v>1.034526220307253</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043240117311943</v>
+        <v>1.048407278593192</v>
       </c>
       <c r="J17">
-        <v>1.022019565798967</v>
+        <v>1.032087040022662</v>
       </c>
       <c r="K17">
-        <v>1.028661644794296</v>
+        <v>1.041870882243177</v>
       </c>
       <c r="L17">
-        <v>1.012995191376554</v>
+        <v>1.025411812403139</v>
       </c>
       <c r="M17">
-        <v>1.011619758727571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.047954800711259</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047649030948173</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040756162350627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9963055973953577</v>
+        <v>1.005448378660265</v>
       </c>
       <c r="D18">
-        <v>1.016482892986735</v>
+        <v>1.02866820408872</v>
       </c>
       <c r="E18">
-        <v>1.000676501043383</v>
+        <v>1.012065727803221</v>
       </c>
       <c r="F18">
-        <v>0.9996694361862646</v>
+        <v>1.034671557616434</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044172100307351</v>
+        <v>1.048468913827507</v>
       </c>
       <c r="J18">
-        <v>1.023508905036942</v>
+        <v>1.032307121311185</v>
       </c>
       <c r="K18">
-        <v>1.030023048974475</v>
+        <v>1.042009778567596</v>
       </c>
       <c r="L18">
-        <v>1.014483567406637</v>
+        <v>1.025679391252064</v>
       </c>
       <c r="M18">
-        <v>1.013493878032744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.047917499025654</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047383224000234</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040842799273828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9969704708509396</v>
+        <v>1.005470293193287</v>
       </c>
       <c r="D19">
-        <v>1.01701560514735</v>
+        <v>1.028564305152388</v>
       </c>
       <c r="E19">
-        <v>1.001254731693301</v>
+        <v>1.012046323829748</v>
       </c>
       <c r="F19">
-        <v>1.000380858778957</v>
+        <v>1.034273933117508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044487456049395</v>
+        <v>1.048354519165731</v>
       </c>
       <c r="J19">
-        <v>1.02401312100918</v>
+        <v>1.032194791740497</v>
       </c>
       <c r="K19">
-        <v>1.030483947466779</v>
+        <v>1.041845546495271</v>
       </c>
       <c r="L19">
-        <v>1.014987414577628</v>
+        <v>1.025596866000554</v>
       </c>
       <c r="M19">
-        <v>1.014128513191057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.047464648087236</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046701766461708</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040733040316566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9939788608753588</v>
+        <v>1.003757663313294</v>
       </c>
       <c r="D20">
-        <v>1.014619064460919</v>
+        <v>1.027242667664682</v>
       </c>
       <c r="E20">
-        <v>0.9986530857193143</v>
+        <v>1.01066735457115</v>
       </c>
       <c r="F20">
-        <v>0.997180303438124</v>
+        <v>1.032391724734896</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043067519803628</v>
+        <v>1.047744237236704</v>
       </c>
       <c r="J20">
-        <v>1.021743876843049</v>
+        <v>1.031144497895294</v>
       </c>
       <c r="K20">
-        <v>1.028409635426423</v>
+        <v>1.040822824823225</v>
       </c>
       <c r="L20">
-        <v>1.012719660409992</v>
+        <v>1.024525189460278</v>
       </c>
       <c r="M20">
-        <v>1.011272915678993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.045887953109126</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044930184301778</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040013842620128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9839158906606863</v>
+        <v>0.999548113309886</v>
       </c>
       <c r="D21">
-        <v>1.006565753036438</v>
+        <v>1.024493096014041</v>
       </c>
       <c r="E21">
-        <v>0.9899044458129858</v>
+        <v>1.0074312635026</v>
       </c>
       <c r="F21">
-        <v>0.9864233747792396</v>
+        <v>1.029470423048902</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038273788671614</v>
+        <v>1.046722525128264</v>
       </c>
       <c r="J21">
-        <v>1.014101821212764</v>
+        <v>1.029064739877339</v>
       </c>
       <c r="K21">
-        <v>1.021423793806853</v>
+        <v>1.039024836591504</v>
       </c>
       <c r="L21">
-        <v>1.005079639441957</v>
+        <v>1.02227320288152</v>
       </c>
       <c r="M21">
-        <v>1.00166660783717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.043914182204511</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043327514649676</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03874581809882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773060454798483</v>
+        <v>0.9968679903162737</v>
       </c>
       <c r="D22">
-        <v>1.001283080921469</v>
+        <v>1.022753544298205</v>
       </c>
       <c r="E22">
-        <v>0.9841606857147698</v>
+        <v>1.005380005609924</v>
       </c>
       <c r="F22">
-        <v>0.9793643699471017</v>
+        <v>1.027653257879929</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035111873407137</v>
+        <v>1.046071617169168</v>
       </c>
       <c r="J22">
-        <v>1.009075655806948</v>
+        <v>1.027746268519088</v>
       </c>
       <c r="K22">
-        <v>1.016829162508774</v>
+        <v>1.03788733507889</v>
       </c>
       <c r="L22">
-        <v>1.000052591115841</v>
+        <v>1.020845631678098</v>
       </c>
       <c r="M22">
-        <v>0.9953560143992581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.042696107247482</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042363493114159</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037928126705566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9808385736366705</v>
+        <v>0.9982840495778177</v>
       </c>
       <c r="D23">
-        <v>1.004105591916497</v>
+        <v>1.023666484346203</v>
       </c>
       <c r="E23">
-        <v>0.9872300372684596</v>
+        <v>1.006461742636459</v>
       </c>
       <c r="F23">
-        <v>0.9831363360777301</v>
+        <v>1.028610432166769</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036802915879541</v>
+        <v>1.046411981859156</v>
       </c>
       <c r="J23">
-        <v>1.011762389365039</v>
+        <v>1.028438636278667</v>
       </c>
       <c r="K23">
-        <v>1.019285215679423</v>
+        <v>1.038480939397717</v>
       </c>
       <c r="L23">
-        <v>1.00273999789536</v>
+        <v>1.021596397612129</v>
       </c>
       <c r="M23">
-        <v>0.9987286818673797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.043335449146007</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P23">
+        <v>1.04286948788019</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038338241141464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9941431317359675</v>
+        <v>1.003775927593158</v>
       </c>
       <c r="D24">
-        <v>1.01475063238627</v>
+        <v>1.027228708542524</v>
       </c>
       <c r="E24">
-        <v>0.9987959356128919</v>
+        <v>1.010674468447926</v>
       </c>
       <c r="F24">
-        <v>0.9973560144104054</v>
+        <v>1.032343482803872</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043145554368007</v>
+        <v>1.047725307035111</v>
       </c>
       <c r="J24">
-        <v>1.021868516101397</v>
+        <v>1.031129397071009</v>
       </c>
       <c r="K24">
-        <v>1.028523569200126</v>
+        <v>1.04079395491202</v>
       </c>
       <c r="L24">
-        <v>1.012844229016772</v>
+        <v>1.024516686220724</v>
       </c>
       <c r="M24">
-        <v>1.01142972104028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.045825459314732</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044840154863657</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03996617675345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0085025749078</v>
+        <v>1.009956230926429</v>
       </c>
       <c r="D25">
-        <v>1.026263203847229</v>
+        <v>1.031261073930937</v>
       </c>
       <c r="E25">
-        <v>1.011285707683965</v>
+        <v>1.015444873849694</v>
       </c>
       <c r="F25">
-        <v>1.01273136525469</v>
+        <v>1.036578175251059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049935647129661</v>
+        <v>1.049174241138202</v>
       </c>
       <c r="J25">
-        <v>1.032747142949372</v>
+        <v>1.034153111887212</v>
       </c>
       <c r="K25">
-        <v>1.038467052424472</v>
+        <v>1.043392737836863</v>
       </c>
       <c r="L25">
-        <v>1.023711317814171</v>
+        <v>1.027808067559459</v>
       </c>
       <c r="M25">
-        <v>1.025135206469377</v>
+        <v>1.048634010153392</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047062917901194</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041800784441309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014715325798429</v>
+        <v>1.01369269606126</v>
       </c>
       <c r="D2">
-        <v>1.034367109450318</v>
+        <v>1.032841608688409</v>
       </c>
       <c r="E2">
-        <v>1.019137125982205</v>
+        <v>1.018264297623336</v>
       </c>
       <c r="F2">
-        <v>1.039858181060675</v>
+        <v>1.038801591275</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050253561640153</v>
+        <v>1.049545532708904</v>
       </c>
       <c r="J2">
-        <v>1.03646463884047</v>
+        <v>1.035471434176668</v>
       </c>
       <c r="K2">
-        <v>1.045367551354501</v>
+        <v>1.04386161001998</v>
       </c>
       <c r="L2">
-        <v>1.030336135992934</v>
+        <v>1.029474913429289</v>
       </c>
       <c r="M2">
-        <v>1.050788811319798</v>
+        <v>1.049745583079397</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048768281239644</v>
+        <v>1.04794264490453</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043149065381228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042092969550964</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023655658587857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018107363252059</v>
+        <v>1.016995003843209</v>
       </c>
       <c r="D3">
-        <v>1.036599558219765</v>
+        <v>1.034943992048869</v>
       </c>
       <c r="E3">
-        <v>1.02178309463489</v>
+        <v>1.020830120203363</v>
       </c>
       <c r="F3">
-        <v>1.042213332427803</v>
+        <v>1.041066212018317</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051015225171622</v>
+        <v>1.050241822419351</v>
       </c>
       <c r="J3">
-        <v>1.03811628622183</v>
+        <v>1.037032851004127</v>
       </c>
       <c r="K3">
-        <v>1.046784615613173</v>
+        <v>1.045148459629247</v>
       </c>
       <c r="L3">
-        <v>1.03214464147572</v>
+        <v>1.031203236431619</v>
       </c>
       <c r="M3">
-        <v>1.052333140006211</v>
+        <v>1.051199282073335</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049990499034878</v>
+        <v>1.049093137577712</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04414839121692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042999949002954</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02390468426843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020267904890549</v>
+        <v>1.019098926787297</v>
       </c>
       <c r="D4">
-        <v>1.038025937529571</v>
+        <v>1.036287865113949</v>
       </c>
       <c r="E4">
-        <v>1.02347400719975</v>
+        <v>1.022470431886918</v>
       </c>
       <c r="F4">
-        <v>1.043719748168298</v>
+        <v>1.042515302818333</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051493660669898</v>
+        <v>1.050678787089316</v>
       </c>
       <c r="J4">
-        <v>1.039166990672482</v>
+        <v>1.038026383970705</v>
       </c>
       <c r="K4">
-        <v>1.047686102426373</v>
+        <v>1.045967199096959</v>
       </c>
       <c r="L4">
-        <v>1.033297141935369</v>
+        <v>1.03230501677623</v>
       </c>
       <c r="M4">
-        <v>1.053317665098485</v>
+        <v>1.052126317835007</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050769674143985</v>
+        <v>1.049826815253897</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044786701193357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043579833753438</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024060893517316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021171148979421</v>
+        <v>1.019978649565417</v>
       </c>
       <c r="D5">
-        <v>1.038625209082892</v>
+        <v>1.036852790967641</v>
       </c>
       <c r="E5">
-        <v>1.024182591617037</v>
+        <v>1.023157985368064</v>
       </c>
       <c r="F5">
-        <v>1.044351713870136</v>
+        <v>1.043123422876292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05169347833843</v>
+        <v>1.050861327774083</v>
       </c>
       <c r="J5">
-        <v>1.039607365629397</v>
+        <v>1.038442956702172</v>
       </c>
       <c r="K5">
-        <v>1.04806529336822</v>
+        <v>1.046311911063194</v>
       </c>
       <c r="L5">
-        <v>1.033780148819671</v>
+        <v>1.032766921906312</v>
       </c>
       <c r="M5">
-        <v>1.053730835678638</v>
+        <v>1.052515551664579</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05109666631134</v>
+        <v>1.050134863749734</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045061939353729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043831404428381</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024126593788897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021325941401404</v>
+        <v>1.020129449568602</v>
       </c>
       <c r="D6">
-        <v>1.038730299199454</v>
+        <v>1.036952081739754</v>
       </c>
       <c r="E6">
-        <v>1.024304540176857</v>
+        <v>1.02327635815369</v>
       </c>
       <c r="F6">
-        <v>1.044460955812133</v>
+        <v>1.043228632402361</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051729374052525</v>
+        <v>1.050894289294787</v>
       </c>
       <c r="J6">
-        <v>1.039684574284119</v>
+        <v>1.03851612420396</v>
       </c>
       <c r="K6">
-        <v>1.048133416872091</v>
+        <v>1.046374211396045</v>
       </c>
       <c r="L6">
-        <v>1.033864232072525</v>
+        <v>1.032847416889452</v>
       </c>
       <c r="M6">
-        <v>1.05380334227082</v>
+        <v>1.052584009658863</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051154049587834</v>
+        <v>1.050189042948578</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045118792871299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043885009666329</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024139011447113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020289686808469</v>
+        <v>1.019120216625434</v>
       </c>
       <c r="D7">
-        <v>1.03804662289165</v>
+        <v>1.03630793495547</v>
       </c>
       <c r="E7">
-        <v>1.023492276707839</v>
+        <v>1.022488244880176</v>
       </c>
       <c r="F7">
-        <v>1.043737262771935</v>
+        <v>1.042532368967604</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051503183698726</v>
+        <v>1.050687952286304</v>
       </c>
       <c r="J7">
-        <v>1.039182338497458</v>
+        <v>1.038041239714889</v>
       </c>
       <c r="K7">
-        <v>1.047703705317293</v>
+        <v>1.045984185948481</v>
       </c>
       <c r="L7">
-        <v>1.03331229411242</v>
+        <v>1.032319713321897</v>
       </c>
       <c r="M7">
-        <v>1.053332155382715</v>
+        <v>1.052140359655123</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050781142071937</v>
+        <v>1.049837928271569</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044819123959655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043613820585447</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024065684376366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01588106121343</v>
+        <v>1.014827534809378</v>
       </c>
       <c r="D8">
-        <v>1.035141120162332</v>
+        <v>1.033571079713386</v>
       </c>
       <c r="E8">
-        <v>1.020046836614441</v>
+        <v>1.019146394692028</v>
       </c>
       <c r="F8">
-        <v>1.04066908259707</v>
+        <v>1.039581438348242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050522519929814</v>
+        <v>1.049792033917757</v>
       </c>
       <c r="J8">
-        <v>1.037038407390178</v>
+        <v>1.036014193821126</v>
       </c>
       <c r="K8">
-        <v>1.045865226445972</v>
+        <v>1.044314728547318</v>
       </c>
       <c r="L8">
-        <v>1.030961938601233</v>
+        <v>1.030073114105172</v>
       </c>
       <c r="M8">
-        <v>1.051324965200465</v>
+        <v>1.050250672847701</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049192606171853</v>
+        <v>1.048342385410726</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043523719291363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042438388068424</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02374571930216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007823738266813</v>
+        <v>1.006986585374919</v>
       </c>
       <c r="D9">
-        <v>1.029857477910832</v>
+        <v>1.028598182919553</v>
       </c>
       <c r="E9">
-        <v>1.013793162256264</v>
+        <v>1.013085728367291</v>
       </c>
       <c r="F9">
-        <v>1.035109380288803</v>
+        <v>1.034238685051367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048671029629929</v>
+        <v>1.048096748161599</v>
       </c>
       <c r="J9">
-        <v>1.033103213288264</v>
+        <v>1.032295018851502</v>
       </c>
       <c r="K9">
-        <v>1.042484024348733</v>
+        <v>1.041243709298308</v>
       </c>
       <c r="L9">
-        <v>1.02666634977957</v>
+        <v>1.025970007385405</v>
       </c>
       <c r="M9">
-        <v>1.047657403727309</v>
+        <v>1.046799656429156</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046290005943634</v>
+        <v>1.045611161550164</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041129860645545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040263562907968</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0231372035658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002303071917318</v>
+        <v>1.001614391984165</v>
       </c>
       <c r="D10">
-        <v>1.026287400432645</v>
+        <v>1.025239610010134</v>
       </c>
       <c r="E10">
-        <v>1.009547252106748</v>
+        <v>1.008971698650233</v>
       </c>
       <c r="F10">
-        <v>1.031410001318704</v>
+        <v>1.030687480719173</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047392234358783</v>
+        <v>1.046923700579335</v>
       </c>
       <c r="J10">
-        <v>1.030425611275807</v>
+        <v>1.029764104141795</v>
       </c>
       <c r="K10">
-        <v>1.040197712354869</v>
+        <v>1.039167633765249</v>
       </c>
       <c r="L10">
-        <v>1.023746241333016</v>
+        <v>1.023180833925404</v>
       </c>
       <c r="M10">
-        <v>1.045234388219345</v>
+        <v>1.044523920307955</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044423434340819</v>
+        <v>1.043861184023016</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03953003079304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038814060639129</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022720237954789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000245710526952</v>
+        <v>0.9995860417060572</v>
       </c>
       <c r="D11">
-        <v>1.025142027010259</v>
+        <v>1.024144688683057</v>
       </c>
       <c r="E11">
-        <v>1.008025262554797</v>
+        <v>1.007473827180013</v>
       </c>
       <c r="F11">
-        <v>1.030619075280941</v>
+        <v>1.029930869262632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047084121056996</v>
+        <v>1.046636541453429</v>
       </c>
       <c r="J11">
-        <v>1.02960827122526</v>
+        <v>1.028976051973217</v>
       </c>
       <c r="K11">
-        <v>1.039604882327622</v>
+        <v>1.03862519717076</v>
       </c>
       <c r="L11">
-        <v>1.022797404681366</v>
+        <v>1.022256161129362</v>
       </c>
       <c r="M11">
-        <v>1.044985773897525</v>
+        <v>1.044309577470943</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044659803381448</v>
+        <v>1.044124940359404</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03914354117032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038466422157508</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022652948624479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9996069281077629</v>
+        <v>0.9989438088646461</v>
       </c>
       <c r="D12">
-        <v>1.024856952230087</v>
+        <v>1.023862132264357</v>
       </c>
       <c r="E12">
-        <v>1.007576703054067</v>
+        <v>1.007020894223737</v>
       </c>
       <c r="F12">
-        <v>1.030617728074036</v>
+        <v>1.029930380563127</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047058582105911</v>
+        <v>1.046608885330356</v>
       </c>
       <c r="J12">
-        <v>1.029427932763357</v>
+        <v>1.028792935957779</v>
       </c>
       <c r="K12">
-        <v>1.039522939269476</v>
+        <v>1.038546018747526</v>
       </c>
       <c r="L12">
-        <v>1.022560170875576</v>
+        <v>1.022014809876672</v>
       </c>
       <c r="M12">
-        <v>1.0451809448624</v>
+        <v>1.044505781023623</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045138431273291</v>
+        <v>1.044604563504704</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039085605384034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038410442102431</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022667949654305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000030293856233</v>
+        <v>0.9993380925488956</v>
       </c>
       <c r="D13">
-        <v>1.025231856631559</v>
+        <v>1.024202306604159</v>
       </c>
       <c r="E13">
-        <v>1.00793392701124</v>
+        <v>1.007351188343049</v>
       </c>
       <c r="F13">
-        <v>1.031246782378092</v>
+        <v>1.030534281701533</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047262200510916</v>
+        <v>1.046792251048696</v>
       </c>
       <c r="J13">
-        <v>1.029740755299333</v>
+        <v>1.029077768310043</v>
       </c>
       <c r="K13">
-        <v>1.039848643020998</v>
+        <v>1.038837538773472</v>
       </c>
       <c r="L13">
-        <v>1.022867159000357</v>
+        <v>1.02229532791701</v>
       </c>
       <c r="M13">
-        <v>1.045756757641592</v>
+        <v>1.045056824905903</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045868760781422</v>
+        <v>1.045315445254714</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03931340763527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038613828598989</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022754240009674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000808912876801</v>
+        <v>1.000085047017392</v>
       </c>
       <c r="D14">
-        <v>1.025794536027149</v>
+        <v>1.024724053215457</v>
       </c>
       <c r="E14">
-        <v>1.008549956811701</v>
+        <v>1.007938426644894</v>
       </c>
       <c r="F14">
-        <v>1.031972864849051</v>
+        <v>1.031231194952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047508736694825</v>
+        <v>1.047016571346338</v>
       </c>
       <c r="J14">
-        <v>1.030183684825052</v>
+        <v>1.02948993736348</v>
       </c>
       <c r="K14">
-        <v>1.040262219238302</v>
+        <v>1.039210679414181</v>
       </c>
       <c r="L14">
-        <v>1.023329174628291</v>
+        <v>1.022728947310543</v>
       </c>
       <c r="M14">
-        <v>1.046332212127747</v>
+        <v>1.045603458506675</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046496071542983</v>
+        <v>1.045920049473103</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03960723287241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038879198846961</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022847192054994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001234616814614</v>
+        <v>1.000497126260304</v>
       </c>
       <c r="D15">
-        <v>1.026083405872744</v>
+        <v>1.024994389731396</v>
       </c>
       <c r="E15">
-        <v>1.008880313705366</v>
+        <v>1.008256558068559</v>
       </c>
       <c r="F15">
-        <v>1.032301919491974</v>
+        <v>1.031547178196394</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047623528293309</v>
+        <v>1.047121754930997</v>
       </c>
       <c r="J15">
-        <v>1.030405345736876</v>
+        <v>1.029698275011669</v>
       </c>
       <c r="K15">
-        <v>1.04046034715183</v>
+        <v>1.039390457115348</v>
       </c>
       <c r="L15">
-        <v>1.023565673054581</v>
+        <v>1.022953357688334</v>
       </c>
       <c r="M15">
-        <v>1.046570646623487</v>
+        <v>1.045828949285339</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04672188870562</v>
+        <v>1.046135650994711</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03975315101874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039012713030986</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022887819534816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00348871328572</v>
+        <v>1.002693843433676</v>
       </c>
       <c r="D16">
-        <v>1.027527367480901</v>
+        <v>1.026355114000191</v>
       </c>
       <c r="E16">
-        <v>1.010602430730707</v>
+        <v>1.009928097589254</v>
       </c>
       <c r="F16">
-        <v>1.033777875561338</v>
+        <v>1.03296518986613</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048141170728528</v>
+        <v>1.047598631487195</v>
       </c>
       <c r="J16">
-        <v>1.031488250681021</v>
+        <v>1.030724543381472</v>
       </c>
       <c r="K16">
-        <v>1.0413815067837</v>
+        <v>1.040228952839702</v>
       </c>
       <c r="L16">
-        <v>1.024746734442589</v>
+        <v>1.024084223254685</v>
       </c>
       <c r="M16">
-        <v>1.047527946652075</v>
+        <v>1.046728700129455</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047440009539366</v>
+        <v>1.04680826714202</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040407585735287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039609000986796</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023055072020641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00481255313418</v>
+        <v>1.003990224311793</v>
       </c>
       <c r="D17">
-        <v>1.028342192081986</v>
+        <v>1.027127535578771</v>
       </c>
       <c r="E17">
-        <v>1.011604233550104</v>
+        <v>1.010906118147797</v>
       </c>
       <c r="F17">
-        <v>1.034526220307253</v>
+        <v>1.033684333607709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048407278593192</v>
+        <v>1.047845039236827</v>
       </c>
       <c r="J17">
-        <v>1.032087040022662</v>
+        <v>1.031295922986658</v>
       </c>
       <c r="K17">
-        <v>1.041870882243177</v>
+        <v>1.040676071200519</v>
       </c>
       <c r="L17">
-        <v>1.025411812403139</v>
+        <v>1.024725588144386</v>
       </c>
       <c r="M17">
-        <v>1.047954800711259</v>
+        <v>1.047126452469453</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047649030948173</v>
+        <v>1.04699422126863</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040756162350627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039927948043176</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023133870404629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005448378660265</v>
+        <v>1.004622957209789</v>
       </c>
       <c r="D18">
-        <v>1.02866820408872</v>
+        <v>1.027443873437035</v>
       </c>
       <c r="E18">
-        <v>1.012065727803221</v>
+        <v>1.011365790750667</v>
       </c>
       <c r="F18">
-        <v>1.034671557616434</v>
+        <v>1.03382352809451</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048468913827507</v>
+        <v>1.047904190909563</v>
       </c>
       <c r="J18">
-        <v>1.032307121311185</v>
+        <v>1.031512445304295</v>
       </c>
       <c r="K18">
-        <v>1.042009778567596</v>
+        <v>1.040805127460771</v>
       </c>
       <c r="L18">
-        <v>1.025679391252064</v>
+        <v>1.024991178043634</v>
       </c>
       <c r="M18">
-        <v>1.047917499025654</v>
+        <v>1.047082892286989</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047383224000234</v>
+        <v>1.04672333090245</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040842799273828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040006490945376</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023137168830631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005470293193287</v>
+        <v>1.004663385203656</v>
       </c>
       <c r="D19">
-        <v>1.028564305152388</v>
+        <v>1.027359733387013</v>
       </c>
       <c r="E19">
-        <v>1.012046323829748</v>
+        <v>1.011363958463501</v>
       </c>
       <c r="F19">
-        <v>1.034273933117508</v>
+        <v>1.033440406086049</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048354519165731</v>
+        <v>1.047802610227241</v>
       </c>
       <c r="J19">
-        <v>1.032194791740497</v>
+        <v>1.031417761468952</v>
       </c>
       <c r="K19">
-        <v>1.041845546495271</v>
+        <v>1.040660238076133</v>
       </c>
       <c r="L19">
-        <v>1.025596866000554</v>
+        <v>1.024925869303936</v>
       </c>
       <c r="M19">
-        <v>1.047464648087236</v>
+        <v>1.04664425683824</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046701766461708</v>
+        <v>1.046052903661645</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040733040316566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039911033826749</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023077732916177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003757663313294</v>
+        <v>1.003029345664809</v>
       </c>
       <c r="D20">
-        <v>1.027242667664682</v>
+        <v>1.026139099556101</v>
       </c>
       <c r="E20">
-        <v>1.01066735457115</v>
+        <v>1.010056554593843</v>
       </c>
       <c r="F20">
-        <v>1.032391724734896</v>
+        <v>1.031629992026424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047744237236704</v>
+        <v>1.047247607218097</v>
       </c>
       <c r="J20">
-        <v>1.031144497895294</v>
+        <v>1.030443988511393</v>
       </c>
       <c r="K20">
-        <v>1.040822824823225</v>
+        <v>1.039737385672353</v>
       </c>
       <c r="L20">
-        <v>1.024525189460278</v>
+        <v>1.023924846887212</v>
       </c>
       <c r="M20">
-        <v>1.045887953109126</v>
+        <v>1.04513856870644</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044930184301778</v>
+        <v>1.044337129150267</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040013842620128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03926283874758</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022839529332953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.999548113309886</v>
+        <v>0.9989393246214568</v>
       </c>
       <c r="D21">
-        <v>1.024493096014041</v>
+        <v>1.023556879432006</v>
       </c>
       <c r="E21">
-        <v>1.0074312635026</v>
+        <v>1.006926723008269</v>
       </c>
       <c r="F21">
-        <v>1.029470423048902</v>
+        <v>1.028826372200867</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046722525128264</v>
+        <v>1.046310296886813</v>
       </c>
       <c r="J21">
-        <v>1.029064739877339</v>
+        <v>1.028481459271404</v>
       </c>
       <c r="K21">
-        <v>1.039024836591504</v>
+        <v>1.038105293107968</v>
       </c>
       <c r="L21">
-        <v>1.02227320288152</v>
+        <v>1.021778044139446</v>
       </c>
       <c r="M21">
-        <v>1.043914182204511</v>
+        <v>1.043281453728521</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043327514649676</v>
+        <v>1.042826754266156</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03874581809882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038112439286231</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022498900059913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9968679903162737</v>
+        <v>0.9963346823715384</v>
       </c>
       <c r="D22">
-        <v>1.022753544298205</v>
+        <v>1.021922568045278</v>
       </c>
       <c r="E22">
-        <v>1.005380005609924</v>
+        <v>1.004942375227226</v>
       </c>
       <c r="F22">
-        <v>1.027653257879929</v>
+        <v>1.027083363352685</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046071617169168</v>
+        <v>1.045712299715566</v>
       </c>
       <c r="J22">
-        <v>1.027746268519088</v>
+        <v>1.027236597077803</v>
       </c>
       <c r="K22">
-        <v>1.03788733507889</v>
+        <v>1.037071895117904</v>
       </c>
       <c r="L22">
-        <v>1.020845631678098</v>
+        <v>1.020416554435504</v>
       </c>
       <c r="M22">
-        <v>1.042696107247482</v>
+        <v>1.042136732156709</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042363493114159</v>
+        <v>1.04192078624038</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037928126705566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037367050265773</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022281925783027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9982840495778177</v>
+        <v>0.9977108388489453</v>
       </c>
       <c r="D23">
-        <v>1.023666484346203</v>
+        <v>1.022779784934272</v>
       </c>
       <c r="E23">
-        <v>1.006461742636459</v>
+        <v>1.005988782080553</v>
       </c>
       <c r="F23">
-        <v>1.028610432166769</v>
+        <v>1.02800129142221</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046411981859156</v>
+        <v>1.046024731374524</v>
       </c>
       <c r="J23">
-        <v>1.028438636278667</v>
+        <v>1.02789009088137</v>
       </c>
       <c r="K23">
-        <v>1.038480939397717</v>
+        <v>1.03761039977564</v>
       </c>
       <c r="L23">
-        <v>1.021596397612129</v>
+        <v>1.02113244173585</v>
       </c>
       <c r="M23">
-        <v>1.043335449146007</v>
+        <v>1.042737267619998</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04286948788019</v>
+        <v>1.042396068704619</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038338241141464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037737261168347</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022393917105533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003775927593158</v>
+        <v>1.003049693427372</v>
       </c>
       <c r="D24">
-        <v>1.027228708542524</v>
+        <v>1.026127027299731</v>
       </c>
       <c r="E24">
-        <v>1.010674468447926</v>
+        <v>1.010065691736613</v>
       </c>
       <c r="F24">
-        <v>1.032343482803872</v>
+        <v>1.031583205559537</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047725307035111</v>
+        <v>1.047230102897473</v>
       </c>
       <c r="J24">
-        <v>1.031129397071009</v>
+        <v>1.030430851207603</v>
       </c>
       <c r="K24">
-        <v>1.04079395491202</v>
+        <v>1.039710349064285</v>
       </c>
       <c r="L24">
-        <v>1.024516686220724</v>
+        <v>1.023918318658579</v>
       </c>
       <c r="M24">
-        <v>1.045825459314732</v>
+        <v>1.045077492492538</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044840154863657</v>
+        <v>1.044248192570565</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03996617675345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039213792153761</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022827901730517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009956230926429</v>
+        <v>1.009061232214518</v>
       </c>
       <c r="D25">
-        <v>1.031261073930937</v>
+        <v>1.029919411900178</v>
       </c>
       <c r="E25">
-        <v>1.015444873849694</v>
+        <v>1.014685859400779</v>
       </c>
       <c r="F25">
-        <v>1.036578175251059</v>
+        <v>1.035649819209201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049174241138202</v>
+        <v>1.048558456274899</v>
       </c>
       <c r="J25">
-        <v>1.034153111887212</v>
+        <v>1.033287450965634</v>
       </c>
       <c r="K25">
-        <v>1.043392737836863</v>
+        <v>1.042070366404547</v>
       </c>
       <c r="L25">
-        <v>1.027808067559459</v>
+        <v>1.027060395044661</v>
       </c>
       <c r="M25">
-        <v>1.048634010153392</v>
+        <v>1.04771882275602</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047062917901194</v>
+        <v>1.046338614598847</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041800784441309</v>
+        <v>1.040879276330299</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023305393170446</v>
       </c>
     </row>
   </sheetData>
